--- a/engine.xlsx
+++ b/engine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VS\js-racer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31647DF3-3AA6-4DFA-A722-747E82833C5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F87499-A9F5-4177-BAEE-9C9B2C3871CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,367 +625,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,367 +1402,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>2420</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2130.7360555555556</c:v>
+                  <c:v>53.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1885.1003475310342</c:v>
+                  <c:v>206.63125925925931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1675.0379847552347</c:v>
+                  <c:v>446.46198823528351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1494.2513615634871</c:v>
+                  <c:v>756.07462750309537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1337.7605961747802</c:v>
+                  <c:v>1117.0407676572841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1201.5871140491925</c:v>
+                  <c:v>1510.8659560547901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1082.5224241270537</c:v>
+                  <c:v>1920.3549377046836</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>977.95682484112274</c:v>
+                  <c:v>2330.5952944727796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>885.75091369578638</c:v>
+                  <c:v>2729.5158037964552</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>804.13809579333747</c:v>
+                  <c:v>3108.05366875549</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>731.64983007561648</c:v>
+                  <c:v>3460.0145512876784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>667.05775052612387</c:v>
+                  <c:v>3781.7287310123129</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>609.32844780146274</c:v>
+                  <c:v>4071.6018885820949</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>557.58784532047218</c:v>
+                  <c:v>4329.6397194055971</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>511.09291461005699</c:v>
+                  <c:v>4557.0010522674247</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>469.20905393439756</c:v>
+                  <c:v>4755.6109272807926</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>431.39187268947262</c:v>
+                  <c:v>4927.8466313019362</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>397.1724295195084</c:v>
+                  <c:v>5076.2969759400976</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>366.14519729587101</c:v>
+                  <c:v>5203.5875968799373</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>337.95819562114815</c:v>
+                  <c:v>5312.2615479224523</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>312.30485722297999</c:v>
+                  <c:v>5404.7036534325971</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>288.91728969047432</c:v>
+                  <c:v>5483.0978583614797</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>267.56066648794615</c:v>
+                  <c:v>5549.4083598491006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>248.02853683098567</c:v>
+                  <c:v>5605.377085930545</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>230.13888703002016</c:v>
+                  <c:v>5652.5317971112163</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>213.73081937917391</c:v>
+                  <c:v>5692.2005750096159</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>198.66174087286856</c:v>
+                  <c:v>5725.5296776885862</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>184.80497466763495</c:v>
+                  <c:v>5753.5026886623336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>172.04772354646906</c:v>
+                  <c:v>5776.9595980853583</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>160.2893276505848</c:v>
+                  <c:v>5796.6149721241036</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>149.43976915070948</c:v>
+                  <c:v>5813.0747316852276</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>139.41838489726359</c:v>
+                  <c:v>5826.8513114506859</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>130.15275484692808</c:v>
+                  <c:v>5838.3771350435245</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>121.57773954584995</c:v>
+                  <c:v>5848.0164461500126</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>113.63464441665354</c:v>
+                  <c:v>5856.0755968483509</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>106.27049225053983</c:v>
+                  <c:v>5862.8119267944667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>99.437388306645943</c:v>
+                  <c:v>5868.4413801016008</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>93.091964894524821</c:v>
+                  <c:v>5873.1450076778174</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>87.194894362067785</c:v>
+                  <c:v>5877.0744962846557</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81.710461110088147</c:v>
+                  <c:v>5880.3568549358415</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76.606184669861335</c:v>
+                  <c:v>5883.0983766457211</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>71.852487062377065</c:v>
+                  <c:v>5885.387980365048</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>67.422398649215467</c:v>
+                  <c:v>5887.3000250715759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63.291297518243603</c:v>
+                  <c:v>5888.8966759152436</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>59.436678149915181</c:v>
+                  <c:v>5890.2298913108461</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>55.8379457039972</c:v>
+                  <c:v>5891.3430900264166</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>52.476232770168281</c:v>
+                  <c:v>5892.2725486364207</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.334235854010977</c:v>
+                  <c:v>5893.0485721404029</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>46.39606923470614</c:v>
+                  <c:v>5893.6964740031153</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43.647134142347568</c:v>
+                  <c:v>5894.2373962502552</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41.074001469613194</c:v>
+                  <c:v>5894.6889954499284</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38.664306461516652</c:v>
+                  <c:v>5895.0660163220091</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>36.406654023921817</c:v>
+                  <c:v>5895.380771250917</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34.290533461278422</c:v>
+                  <c:v>5895.6435410454424</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.306241600687258</c:v>
+                  <c:v>5895.8629098154179</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>30.444813386336033</c:v>
+                  <c:v>5896.0460447513842</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>28.697959138430562</c:v>
+                  <c:v>5896.1989298411272</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>27.058007766399655</c:v>
+                  <c:v>5896.3265610852814</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25.517855309422796</c:v>
+                  <c:v>5896.4331095391999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>24.070918249952207</c:v>
+                  <c:v>5896.5220574731966</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>22.711091109348331</c:v>
+                  <c:v>5896.5963120759116</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>21.432707890274695</c:v>
+                  <c:v>5896.6583003994892</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20.23050697917466</c:v>
+                  <c:v>5896.7100486376476</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>19.099599164893295</c:v>
+                  <c:v>5896.7532483193954</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>18.035438467095855</c:v>
+                  <c:v>5896.7893115761735</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.033795501242647</c:v>
+                  <c:v>5896.8194172848443</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>16.090733136086001</c:v>
+                  <c:v>5896.8445495920323</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15.202584225456761</c:v>
+                  <c:v>5896.865530077117</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.365931218934495</c:v>
+                  <c:v>5896.8830446039156</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>13.577587476218875</c:v>
+                  <c:v>5896.8976657378371</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12.834580127960717</c:v>
+                  <c:v>5896.909871460698</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.134134341748906</c:v>
+                  <c:v>5896.9200607945013</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11.473658866125861</c:v>
+                  <c:v>5896.928566844631</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10.850732738130137</c:v>
+                  <c:v>5896.9356676886191</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.263093051123679</c:v>
+                  <c:v>5896.9415954663164</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.7086236897133649</c:v>
+                  <c:v>5896.9465439684955</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.1853449475619264</c:v>
+                  <c:v>5896.9506749719376</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.6914039519243946</c:v>
+                  <c:v>5896.9541235280076</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.2250658259506526</c:v>
+                  <c:v>5896.9570023776323</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.7847055262563156</c:v>
+                  <c:v>5896.9594056369233</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.3688002990663017</c:v>
+                  <c:v>5896.9614118739801</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.9759227034506077</c:v>
+                  <c:v>5896.9630866773941</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.6047341548644489</c:v>
+                  <c:v>5896.9644848004764</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.2539789464316424</c:v>
+                  <c:v>5896.96565195123</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.9224787092209965</c:v>
+                  <c:v>5896.9666262866431</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.6091272762047284</c:v>
+                  <c:v>5896.967439660124</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.3128859176949206</c:v>
+                  <c:v>5896.9681186628486</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.0327789188633139</c:v>
+                  <c:v>5896.9686854930951</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.7678894724923291</c:v>
+                  <c:v>5896.9691586819526</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.5173558624084036</c:v>
+                  <c:v>5896.9695536991421</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.280367915136976</c:v>
+                  <c:v>5896.9698834587643</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.0561636992134638</c:v>
+                  <c:v>5896.9701587414829</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.844026453305581</c:v>
+                  <c:v>5896.9703885469853</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.6432817258668244</c:v>
+                  <c:v>5896.9705803881925</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.4532947104641067</c:v>
+                  <c:v>5896.9707405368708</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.2734677622182997</c:v>
+                  <c:v>5896.9708742286866</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.1032380819771075</c:v>
+                  <c:v>5896.9709858343649</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.9420755559163179</c:v>
+                  <c:v>5896.9710790025729</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.7894807392480003</c:v>
+                  <c:v>5896.9711567792192</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.6449829736114872</c:v>
+                  <c:v>5896.9712217070155</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.5081386285430392</c:v>
+                  <c:v>5896.9712759086187</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.3785294581700964</c:v>
+                  <c:v>5896.9713211560138</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.2557610649624391</c:v>
+                  <c:v>5896.9713589284529</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.1394614630012803</c:v>
+                  <c:v>5896.9713904608143</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.0292797338034756</c:v>
+                  <c:v>5896.9714167839693</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.9248847682664545</c:v>
+                  <c:v>5896.9714387584909</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.8259640887844162</c:v>
+                  <c:v>5896.9714571027798</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.7322227460316506</c:v>
+                  <c:v>5896.9714724165569</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.6433822853180367</c:v>
+                  <c:v>5896.9714852004699</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.5591797777980096</c:v>
+                  <c:v>5896.9714958724553</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.4793669121604485</c:v>
+                  <c:v>5896.9715047814061</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.4037091427455874</c:v>
+                  <c:v>5896.9715122185844</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.3319848903285874</c:v>
+                  <c:v>5896.9715184271272</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.2639847920799367</c:v>
+                  <c:v>5896.9715236100037</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1995109974623384</c:v>
+                  <c:v>5896.9715279366619</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.1383765070539422</c:v>
+                  <c:v>5896.9715315485473</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.0804045515003167</c:v>
+                  <c:v>5896.9715345637424</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.0254280079938733</c:v>
+                  <c:v>5896.9715370808208</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.97328885186090186</c:v>
+                  <c:v>5896.9715391820746</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.9238376410041661</c:v>
+                  <c:v>5896.9715409361952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,367 +2179,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>1650</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1548.25</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1456.275348611111</c:v>
+                  <c:v>393.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1372.7409562075575</c:v>
+                  <c:v>578.65921851851863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1296.5464826834875</c:v>
+                  <c:v>753.03118834967358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1226.7765365773132</c:v>
+                  <c:v>915.30354295335439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1162.6631082585106</c:v>
+                  <c:v>1064.4949351880884</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1103.5568527008181</c:v>
+                  <c:v>1200.1109129070167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1048.9048707801214</c:v>
+                  <c:v>1322.0992666417242</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>998.23332838959027</c:v>
+                  <c:v>1430.7819026138616</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>951.13372233745588</c:v>
+                  <c:v>1526.7744599536034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>907.2519268841861</c:v>
+                  <c:v>1610.9037567358762</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>866.27938296019101</c:v>
+                  <c:v>1684.1307990352873</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>827.94595462303312</c:v>
+                  <c:v>1747.4843107840973</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>792.01409456242072</c:v>
+                  <c:v>1802.0071557999424</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>758.27404606534833</c:v>
+                  <c:v>1848.7159839198039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>726.53987204846317</c:v>
+                  <c:v>1888.5730580151233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>696.64614889889162</c:v>
+                  <c:v>1922.4684583827254</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>668.44519835918254</c:v>
+                  <c:v>1951.2105811406091</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>641.80475766221525</c:v>
+                  <c:v>1975.5228922135914</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>616.60600878826313</c:v>
+                  <c:v>1996.0451299862534</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>592.74190367802794</c:v>
+                  <c:v>2013.3374630385358</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>570.11573465550271</c:v>
+                  <c:v>2027.8864351267578</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>548.63990904685329</c:v>
+                  <c:v>2040.1118277895516</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>528.2348946584832</c:v>
+                  <c:v>2050.3738230985855</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>508.82830887124658</c:v>
+                  <c:v>2058.980050372857</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>490.35412897371492</c:v>
+                  <c:v>2066.1922541857552</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>472.75200526489266</c:v>
+                  <c:v>2072.2324334558707</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>455.96666161144861</c:v>
+                  <c:v>2077.2883806772593</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>439.94737070447155</c:v>
+                  <c:v>2081.5186039437694</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>424.647493348198</c:v>
+                  <c:v>2085.0566488930408</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>410.02407282322844</c:v>
+                  <c:v>2088.0148583676128</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>396.03747677387997</c:v>
+                  <c:v>2090.4876186162919</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>382.65108023210138</c:v>
+                  <c:v>2092.5541453646174</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>369.83098435512562</c:v>
+                  <c:v>2094.2808633544141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>357.54576625760126</c:v>
+                  <c:v>2095.7234306168034</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>345.76625599074487</c:v>
+                  <c:v>2096.9284549301747</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>334.46533728471275</c:v>
+                  <c:v>2097.9349453870586</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>323.61776914492879</c:v>
+                  <c:v>2098.7755372498423</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>313.20002579394247</c:v>
+                  <c:v>2099.4775236266505</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>303.19015279004225</c:v>
+                  <c:v>2100.0637231288679</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>293.56763744253897</c:v>
+                  <c:v>2100.55320867725</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>284.31329188972893</c:v>
+                  <c:v>2100.9619190441758</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>275.40914741592627</c:v>
+                  <c:v>2101.303171558945</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>266.83835876429771</c:v>
+                  <c:v>2101.5880916431825</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>258.5851173572342</c:v>
+                  <c:v>2101.8259724542218</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>250.63457246955545</c:v>
+                  <c:v>2102.024575860095</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>242.97275951521667</c:v>
+                  <c:v>2102.1903842129323</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>235.58653470808204</c:v>
+                  <c:v>2102.3288108916981</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>228.46351544402972</c:v>
+                  <c:v>2102.4443763158961</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>221.59202582706132</c:v>
+                  <c:v>2102.5408550579205</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>214.9610468278261</c:v>
+                  <c:v>2102.6213987752162</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>208.5601706203901</c:v>
+                  <c:v>2102.6886389195874</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>202.37955869334246</c:v>
+                  <c:v>2102.7447725385477</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>196.40990337541083</c:v>
+                  <c:v>2102.7916339438107</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>190.6423924544936</c:v>
+                  <c:v>2102.8307545690795</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>185.06867660311408</c:v>
+                  <c:v>2102.863412959467</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>179.68083935337785</c:v>
+                  <c:v>2102.8906765166957</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>174.47136939108265</c:v>
+                  <c:v>2102.91343635775</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>169.4331349621456</c:v>
+                  <c:v>2102.9324364216745</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>164.55936020535637</c:v>
+                  <c:v>2102.9482977726525</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>159.84360324397369</c:v>
+                  <c:v>2102.9615388915067</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>155.27973588514064</c:v>
+                  <c:v>2102.972592617321</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>150.86192479075524</c:v>
+                  <c:v>2102.9818202919005</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>146.58461399650699</c:v>
+                  <c:v>2102.9895235686618</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>142.442508667472</c:v>
+                  <c:v>2102.9959542714605</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>138.43055998910782</c:v>
+                  <c:v>2103.0013226252695</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>134.54395110184905</c:v>
+                  <c:v>2103.005804127517</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>130.77808399590069</c:v>
+                  <c:v>2103.009545284528</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>127.12856729036675</c:v>
+                  <c:v>2103.0126684004872</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>123.59120482763421</c:v>
+                  <c:v>2103.015275575377</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>120.16198502003787</c:v>
+                  <c:v>2103.0174520425462</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>116.8370708913379</c:v>
+                  <c:v>2103.0192689549654</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>113.61279076051073</c:v>
+                  <c:v>2103.0207857112287</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>110.48562951984482</c:v>
+                  <c:v>2103.0220518973319</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>107.45222046339545</c:v>
+                  <c:v>2103.0231089076833</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>104.50933762553245</c:v>
+                  <c:v>2103.0239912983334</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>101.65388859265131</c:v>
+                  <c:v>2103.0247279166624</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>98.882907754145975</c:v>
+                  <c:v>2103.0253428444476</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>96.193549961494213</c:v>
+                  <c:v>2103.025856185136</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>93.583084566808083</c:v>
+                  <c:v>2103.0262847210665</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>91.04888981448147</c:v>
+                  <c:v>2103.0266424621173</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>88.588447561642781</c:v>
+                  <c:v>2103.0269411037143</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>86.199338305015459</c:v>
+                  <c:v>2103.0271904091869</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>83.879236493518448</c:v>
+                  <c:v>2103.027398528945</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>81.625906107519697</c:v>
+                  <c:v>2103.0275722669408</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>79.437196487101176</c:v>
+                  <c:v>2103.0277173031013</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>77.311038393018535</c:v>
+                  <c:v>2103.0278383790205</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>75.245440285250695</c:v>
+                  <c:v>2103.0279394529739</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>73.238484805147834</c:v>
+                  <c:v>2103.0280238293226</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>71.288325448206834</c:v>
+                  <c:v>2103.0280942665404</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>69.393183415441442</c:v>
+                  <c:v>2103.0281530673983</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>67.551344632176978</c:v>
+                  <c:v>2103.0282021542444</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>65.76115692389223</c:v>
+                  <c:v>2103.028243131851</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>64.021027339462279</c:v>
+                  <c:v>2103.0282773398803</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>62.329419612829057</c:v>
+                  <c:v>2103.0283058966784</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>60.684851754746724</c:v>
+                  <c:v>2103.0283297358396</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59.085893766822601</c:v>
+                  <c:v>2103.0283496367265</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>57.531165470602602</c:v>
+                  <c:v>2103.0283662499492</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>56.019334444939638</c:v>
+                  <c:v>2103.0283801186361</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>54.549114065334948</c:v>
+                  <c:v>2103.0283916961898</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>53.119261639361284</c:v>
+                  <c:v>2103.0284013611094</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>51.728576632663675</c:v>
+                  <c:v>2103.0284094293661</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>50.375898980392833</c:v>
+                  <c:v>2103.0284161647314</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>49.060107479258953</c:v>
+                  <c:v>2103.0284217874018</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>47.780118255702448</c:v>
+                  <c:v>2103.0284264811967</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>46.534883305964797</c:v>
+                  <c:v>2103.0284303995672</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>45.323389104109019</c:v>
+                  <c:v>2103.0284336706163</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>44.144655274286677</c:v>
+                  <c:v>2103.0284364012814</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>42.997733323778725</c:v>
+                  <c:v>2103.0284386808357</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>41.881705433551303</c:v>
+                  <c:v>2103.0284405838029</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>40.795683303267573</c:v>
+                  <c:v>2103.0284421723959</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>39.73880704788187</c:v>
+                  <c:v>2103.028443498551</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>38.710244143116185</c:v>
+                  <c:v>2103.028444605623</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>37.70918841728006</c:v>
+                  <c:v>2103.0284455298038</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>36.734859087046061</c:v>
+                  <c:v>2103.0284463013086</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>35.786499834933352</c:v>
+                  <c:v>2103.0284469453595</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>34.86337792638367</c:v>
+                  <c:v>2103.0284474830119</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>33.964783364436578</c:v>
+                  <c:v>2103.0284479318429</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>33.090028080125812</c:v>
+                  <c:v>2103.0284483065261</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>32.238445156826138</c:v>
+                  <c:v>2103.0284486193113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,367 +2956,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>-4070</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3678.9860555555556</c:v>
+                  <c:v>7746.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3341.375696142145</c:v>
+                  <c:v>7399.7020740740736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3047.7789409627921</c:v>
+                  <c:v>6974.8787932461983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2790.7978442469748</c:v>
+                  <c:v>6490.8941841472315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2564.5371327520934</c:v>
+                  <c:v>5967.6556893893612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2364.2502223077031</c:v>
+                  <c:v>5424.639108757121</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2186.0792768278716</c:v>
+                  <c:v>4879.5341493882997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2026.8616956212441</c:v>
+                  <c:v>4347.3054388854962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1883.9842420853765</c:v>
+                  <c:v>3839.702293589683</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1755.2718181307932</c:v>
+                  <c:v>3365.171871290906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1638.9017569598027</c:v>
+                  <c:v>2929.0816919764447</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1533.337133486315</c:v>
+                  <c:v>2534.1404699524001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1437.2744024244957</c:v>
+                  <c:v>2180.913800633808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1349.601939882893</c:v>
+                  <c:v>1868.3531247944604</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1269.3669606754054</c:v>
+                  <c:v>1594.2829638127714</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1195.7489259828608</c:v>
+                  <c:v>1355.8160147040842</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1128.0380215883642</c:v>
+                  <c:v>1149.6849103153384</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1065.6176278786909</c:v>
+                  <c:v>972.49244291929335</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1007.9499549580862</c:v>
+                  <c:v>820.88951090647129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-954.56420440941133</c:v>
+                  <c:v>691.69332209129425</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-905.04676090100793</c:v>
+                  <c:v>581.95888352886709</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-859.03302434597708</c:v>
+                  <c:v>489.01570651176257</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-816.20057553479944</c:v>
+                  <c:v>410.47981236134774</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-776.26343148946887</c:v>
+                  <c:v>344.24909097086947</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-738.96719590126668</c:v>
+                  <c:v>288.48815251592669</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-704.08494835288889</c:v>
+                  <c:v>241.60717080462882</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-671.41374613776122</c:v>
+                  <c:v>202.23788885554313</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-640.77163627908362</c:v>
+                  <c:v>169.20893066040708</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-611.99509425094061</c:v>
+                  <c:v>141.52179797087229</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-584.93682099878276</c:v>
+                  <c:v>118.32837898285561</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-559.46384197393786</c:v>
+                  <c:v>98.910409947159678</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-535.45586167114357</c:v>
+                  <c:v>82.661069933022191</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-512.80383507902945</c:v>
+                  <c:v>69.068719591858098</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-491.40872390097559</c:v>
+                  <c:v>57.702690495573279</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-471.1804106742548</c:v>
+                  <c:v>48.200972534845732</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-452.03674824128473</c:v>
+                  <c:v>40.259618275358662</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-433.90272559135872</c:v>
+                  <c:v>33.623674511340596</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-416.70973403945362</c:v>
+                  <c:v>28.079455072340352</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-400.39492015601024</c:v>
+                  <c:v>23.447980088693839</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-384.90061390013039</c:v>
+                  <c:v>19.579421935290611</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-370.17382211240033</c:v>
+                  <c:v>16.348414677028813</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-356.165778952106</c:v>
+                  <c:v>13.650100590776219</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-342.83154606514177</c:v>
+                  <c:v>11.39680336947913</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-330.1296562825413</c:v>
+                  <c:v>9.5152324415739713</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-318.02179550714936</c:v>
+                  <c:v>7.9441362349321025</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-306.47251817355266</c:v>
+                  <c:v>6.6323341134884686</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-295.44899228538497</c:v>
+                  <c:v>5.5370671506470899</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-284.92077056209303</c:v>
+                  <c:v>4.6226169678989208</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-274.85958467873587</c:v>
+                  <c:v>3.8591496809885939</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-265.23915996940889</c:v>
+                  <c:v>3.2217486918243594</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-256.03504829743929</c:v>
+                  <c:v>2.6896057748554085</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-247.22447708190674</c:v>
+                  <c:v>2.245344758403462</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-238.78621271726428</c:v>
+                  <c:v>1.8744562105352998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-230.70043683668925</c:v>
+                  <c:v>1.5648250107469721</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-222.94863405518086</c:v>
+                  <c:v>1.3063356155025758</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-215.51348998945011</c:v>
+                  <c:v>1.0905422891487433</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-208.37879849180842</c:v>
+                  <c:v>0.91039364217704133</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-201.52937715748232</c:v>
+                  <c:v>0.76000255696862951</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-194.9509902715684</c:v>
+                  <c:v>0.63445403912555776</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-188.63027845530857</c:v>
+                  <c:v>0.52964475415092238</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-182.55469435332202</c:v>
+                  <c:v>0.44214903258171034</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-176.71244377541532</c:v>
+                  <c:v>0.36910698318979485</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-171.0924317699299</c:v>
+                  <c:v>0.30813107045196375</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-165.68421316140029</c:v>
+                  <c:v>0.25722811194282258</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-160.47794713456784</c:v>
+                  <c:v>0.21473415236596338</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-155.46435549035047</c:v>
+                  <c:v>0.17926008988615649</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-150.63468423793506</c:v>
+                  <c:v>0.14964628045072459</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-145.98066822135746</c:v>
+                  <c:v>0.12492463835496892</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-141.49449850930125</c:v>
+                  <c:v>0.10428699559724919</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-137.16879230385308</c:v>
+                  <c:v>8.7058686785894679E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-132.99656514799858</c:v>
+                  <c:v>7.2676496755775588E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-128.97120523308681</c:v>
+                  <c:v>6.0670250533348735E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-125.08644962663659</c:v>
+                  <c:v>5.0647444140395237E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-121.33636225797495</c:v>
+                  <c:v>4.2280414048946113E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-117.71531351451912</c:v>
+                  <c:v>3.5295626000333868E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-114.21796131524582</c:v>
+                  <c:v>2.9464733171153057E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-110.83923354021324</c:v>
+                  <c:v>2.4597111399998539E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-107.57431170607038</c:v>
+                  <c:v>2.053362754486443E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-104.41861578744486</c:v>
+                  <c:v>1.7141437231657619E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-101.3677900930644</c:v>
+                  <c:v>1.4309642010175594E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-98.417690113547778</c:v>
+                  <c:v>1.1945663902679371E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-95.564370265093388</c:v>
+                  <c:v>9.9722188915620791E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-92.804072459879904</c:v>
+                  <c:v>8.3247903367009712E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-90.133215439950092</c:v>
+                  <c:v>6.9495198249569512E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-87.548384816740693</c:v>
+                  <c:v>5.8014464161715296E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-85.046323763305907</c:v>
+                  <c:v>4.8430367746732372E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-82.623924310713448</c:v>
+                  <c:v>4.0429581308671914E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-80.278219204114009</c:v>
+                  <c:v>3.375053930994909E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-78.006374277640163</c:v>
+                  <c:v>2.8174887247587321E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-75.805681310615242</c:v>
+                  <c:v>2.3520343174823211E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-73.67355133057842</c:v>
+                  <c:v>1.9634738373497385E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-71.607508331390449</c:v>
+                  <c:v>1.6391042727263994E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-69.605183377197818</c:v>
+                  <c:v>1.368321163681685E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-67.664309065329107</c:v>
+                  <c:v>1.1422719271649839E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-65.782714323293163</c:v>
+                  <c:v>9.5356645078936708E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-63.958319516965027</c:v>
+                  <c:v>7.9603547374063055E-4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-62.189131848799711</c:v>
+                  <c:v>6.6452890860091429E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-60.47324102651892</c:v>
+                  <c:v>5.5474747796324664E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-58.808815184187637</c:v>
+                  <c:v>4.6310214474942768E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-57.194097038946438</c:v>
+                  <c:v>3.8659679466945818E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-55.627400267904321</c:v>
+                  <c:v>3.2273027181872749E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-54.107106090833774</c:v>
+                  <c:v>2.6941462010654504E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-52.631660045355275</c:v>
+                  <c:v>2.2490681567433057E-4</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-51.199568942260235</c:v>
+                  <c:v>1.8775178386931657E-4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-49.809397989505925</c:v>
+                  <c:v>1.5673483403588762E-4</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-48.459768074231249</c:v>
+                  <c:v>1.3084194188195397E-4</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-47.149353192893436</c:v>
+                  <c:v>1.0922660385404015E-4</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-45.87687802031833</c:v>
+                  <c:v>9.1182161668257322E-5</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-44.641115609096758</c:v>
+                  <c:v>7.6118694323668024E-5</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-43.440885211349311</c:v>
+                  <c:v>6.3543741816829424E-5</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-42.275050215428024</c:v>
+                  <c:v>5.3046197990624933E-5</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-41.142516190627461</c:v>
+                  <c:v>4.4282864564593183E-5</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-40.042229033444769</c:v>
+                  <c:v>3.6967249798181001E-5</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-38.973173209359999</c:v>
+                  <c:v>3.0860192509862827E-5</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-37.934370084508402</c:v>
+                  <c:v>2.5762029508769047E-5</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-36.924876341987293</c:v>
+                  <c:v>2.1506093162315665E-5</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-35.943782477883985</c:v>
+                  <c:v>1.7953245787794003E-5</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-34.990211372430451</c:v>
+                  <c:v>1.4987336271587992E-5</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-34.063316931986712</c:v>
+                  <c:v>1.2511399290815461E-5</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-33.162282797830308</c:v>
+                  <c:v>1.0444493454997428E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3733,367 +3733,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>-3.3916666666666666</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.065821712962963</c:v>
+                  <c:v>6.4555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.784479746785121</c:v>
+                  <c:v>6.1664183950617284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.5398157841356603</c:v>
+                  <c:v>5.8123989943718319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.3256648702058125</c:v>
+                  <c:v>5.40907848678936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.1371142772934113</c:v>
+                  <c:v>4.9730464078244676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.9702085185897527</c:v>
+                  <c:v>4.5205325906309346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.8217327306898929</c:v>
+                  <c:v>4.0662784578235831</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.6890514130177035</c:v>
+                  <c:v>3.62275453240458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5699868684044804</c:v>
+                  <c:v>3.1997519113247357</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.4627265151089943</c:v>
+                  <c:v>2.8043098927424217</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.3657514641331689</c:v>
+                  <c:v>2.4409014099803708</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.2777809445719293</c:v>
+                  <c:v>2.1117837249603335</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.1977286686870798</c:v>
+                  <c:v>1.81742816719484</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1246682832357442</c:v>
+                  <c:v>1.556960937328717</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0578058005628379</c:v>
+                  <c:v>1.3285691365106429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.99645743831905065</c:v>
+                  <c:v>1.1298466789200701</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.94003168465697018</c:v>
+                  <c:v>0.95807075859611535</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.88801468989890908</c:v>
+                  <c:v>0.81041036909941111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.8399582957984052</c:v>
+                  <c:v>0.68407459242205937</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.79547017034117606</c:v>
+                  <c:v>0.57641110174274524</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.75420563408417329</c:v>
+                  <c:v>0.48496573627405593</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.71586085362164753</c:v>
+                  <c:v>0.40751308875980213</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.68016714627899955</c:v>
+                  <c:v>0.34206651030112312</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.64688619290789073</c:v>
+                  <c:v>0.28687424247572457</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.61580599658438895</c:v>
+                  <c:v>0.24040679376327223</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.58673745696074076</c:v>
+                  <c:v>0.20133930900385735</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.55951145511480105</c:v>
+                  <c:v>0.16853157404628594</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.53397636356590306</c:v>
+                  <c:v>0.1410074422170059</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.50999591187578386</c:v>
+                  <c:v>0.11793483164239357</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.48744735083231899</c:v>
+                  <c:v>9.8606982485713007E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.46621986831161488</c:v>
+                  <c:v>8.2425341622633069E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.44621321805928632</c:v>
+                  <c:v>6.8884224944185155E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.42733652923252452</c:v>
+                  <c:v>5.7557266326548416E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.40950726991747965</c:v>
+                  <c:v>4.8085575412977734E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.39265034222854567</c:v>
+                  <c:v>4.0167477112371446E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.37669729020107062</c:v>
+                  <c:v>3.3549681896132215E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.3615856046594656</c:v>
+                  <c:v>2.8019728759450496E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.34725811169954468</c:v>
+                  <c:v>2.3399545893616959E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.33366243346334185</c:v>
+                  <c:v>1.9539983407244867E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.32075051158344198</c:v>
+                  <c:v>1.6316184946075511E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.30847818509366692</c:v>
+                  <c:v>1.3623678897524012E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.29680481579342166</c:v>
+                  <c:v>1.1375083825646849E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.28569295505428483</c:v>
+                  <c:v>9.4973361412326093E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.27510804690211776</c:v>
+                  <c:v>7.9293603679783092E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.26501816292262448</c:v>
+                  <c:v>6.6201135291100851E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.25539376514462719</c:v>
+                  <c:v>5.526945094573724E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.24620749357115415</c:v>
+                  <c:v>4.6142226255392414E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.23743397546841086</c:v>
+                  <c:v>3.8521808065824338E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.22904965389894655</c:v>
+                  <c:v>3.2159580674904951E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.22103263330784073</c:v>
+                  <c:v>2.6847905765202996E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.21336254024786608</c:v>
+                  <c:v>2.2413381457128405E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.20602039756825563</c:v>
+                  <c:v>1.8711206320028851E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.19898851059772024</c:v>
+                  <c:v>1.5620468421127499E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.19225036403057438</c:v>
+                  <c:v>1.3040208422891435E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.18579052837931739</c:v>
+                  <c:v>1.0886130129188131E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.17959457499120843</c:v>
+                  <c:v>9.0878524095728609E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.17364899874317369</c:v>
+                  <c:v>7.5866136848086777E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.16794114763123527</c:v>
+                  <c:v>6.3333546414052458E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.16245915855964033</c:v>
+                  <c:v>5.2871169927129816E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.15719189871275716</c:v>
+                  <c:v>4.4137062845910199E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.15212891196110168</c:v>
+                  <c:v>3.6845752715142531E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.1472603698128461</c:v>
+                  <c:v>3.0758915265816236E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.14257702647494158</c:v>
+                  <c:v>2.5677589204330315E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.13807017763450025</c:v>
+                  <c:v>2.1435675995235215E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.13373162261213986</c:v>
+                  <c:v>1.7894512697163616E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.12955362957529207</c:v>
+                  <c:v>1.4938340823846373E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.12552890353161256</c:v>
+                  <c:v>1.2470523370893715E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.12165055685113121</c:v>
+                  <c:v>1.0410386529580743E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.11791208209108438</c:v>
+                  <c:v>8.6905829664374321E-5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.11430732691987756</c:v>
+                  <c:v>7.2548905654912227E-5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.11083047095666548</c:v>
+                  <c:v>6.0563747296479657E-5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.10747600436090567</c:v>
+                  <c:v>5.0558542111123949E-5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.10423870802219716</c:v>
+                  <c:v>4.2206203450329367E-5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.10111363521497913</c:v>
+                  <c:v>3.5233678374121762E-5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-9.8096094595432601E-2</c:v>
+                  <c:v>2.9413021666944891E-5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-9.5181634429371512E-2</c:v>
+                  <c:v>2.4553944309294215E-5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-9.2366027950177704E-2</c:v>
+                  <c:v>2.0497592833332115E-5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-8.9645259755058646E-2</c:v>
+                  <c:v>1.7111356287387023E-5</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-8.7015513156204052E-2</c:v>
+                  <c:v>1.4284531026381349E-5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-8.4473158410886998E-2</c:v>
+                  <c:v>1.1924701675146329E-5</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-8.2014741761289811E-2</c:v>
+                  <c:v>9.9547199188994764E-6</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-7.9636975220911163E-2</c:v>
+                  <c:v>8.3101824096350652E-6</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-7.7336727049899925E-2</c:v>
+                  <c:v>6.9373252805841426E-6</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-7.5111012866625082E-2</c:v>
+                  <c:v>5.7912665207974591E-6</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-7.2956987347283911E-2</c:v>
+                  <c:v>4.8345386801429416E-6</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-7.0871936469421595E-2</c:v>
+                  <c:v>4.0358639788943645E-6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-6.8853270258927873E-2</c:v>
+                  <c:v>3.3691317757226595E-6</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-6.6898516003428346E-2</c:v>
+                  <c:v>2.8125449424957573E-6</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-6.5005311898033463E-2</c:v>
+                  <c:v>2.347907270632277E-6</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-6.3171401092179363E-2</c:v>
+                  <c:v>1.9600285979019344E-6</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-6.1394626108815346E-2</c:v>
+                  <c:v>1.6362281977914487E-6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-5.9672923609492043E-2</c:v>
+                  <c:v>1.3659202272719996E-6</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-5.8004319480998184E-2</c:v>
+                  <c:v>1.1402676364014041E-6</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-5.6386924221107589E-2</c:v>
+                  <c:v>9.5189327263748662E-7</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-5.4818928602744302E-2</c:v>
+                  <c:v>7.9463870899113919E-7</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-5.3298599597470853E-2</c:v>
+                  <c:v>6.6336289478385884E-7</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-5.1824276540666424E-2</c:v>
+                  <c:v>5.5377409050076188E-7</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-5.0394367522099102E-2</c:v>
+                  <c:v>4.6228956496937219E-7</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-4.9007345986823034E-2</c:v>
+                  <c:v>3.8591845395785641E-7</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-4.7661747532455362E-2</c:v>
+                  <c:v>3.2216399555788179E-7</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-4.6356166889920267E-2</c:v>
+                  <c:v>2.6894189318227292E-7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-4.5089255075694813E-2</c:v>
+                  <c:v>2.2451218342212088E-7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-4.3859716704462731E-2</c:v>
+                  <c:v>1.8742234639527548E-7</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-4.2666307451883531E-2</c:v>
+                  <c:v>1.5645981989109713E-7</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-4.1507831657921601E-2</c:v>
+                  <c:v>1.3061236169657302E-7</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-4.0383140061859377E-2</c:v>
+                  <c:v>1.0903495156829498E-7</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-3.9291127660744531E-2</c:v>
+                  <c:v>9.1022169878366797E-8</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-3.8230731683598605E-2</c:v>
+                  <c:v>7.5985134723547771E-8</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-3.7200929674247298E-2</c:v>
+                  <c:v>6.3432245269723359E-8</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-3.6200737676124424E-2</c:v>
+                  <c:v>5.2953118180691188E-8</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-3.5229208512856686E-2</c:v>
+                  <c:v>4.4205164992187445E-8</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-3.4285430158856219E-2</c:v>
+                  <c:v>3.6902387137160988E-8</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-3.3368524194537307E-2</c:v>
+                  <c:v>3.0806041498484165E-8</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-3.247764434113333E-2</c:v>
+                  <c:v>2.5716827091552356E-8</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-3.1611975070423667E-2</c:v>
+                  <c:v>2.1468357923974206E-8</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-3.077073028498941E-2</c:v>
+                  <c:v>1.7921744301929719E-8</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-2.9953152064903323E-2</c:v>
+                  <c:v>1.4961038156495001E-8</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-2.9158509477025377E-2</c:v>
+                  <c:v>1.2489446892989994E-8</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-2.838609744332226E-2</c:v>
+                  <c:v>1.0426166075679552E-8</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-2.7635235664858589E-2</c:v>
+                  <c:v>8.7037445458311902E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4140,367 +4140,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>4070</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3678.9860555555556</c:v>
+                  <c:v>253.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3341.375696142145</c:v>
+                  <c:v>600.29792592592594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3047.7789409627921</c:v>
+                  <c:v>1025.1212067538022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2790.7978442469748</c:v>
+                  <c:v>1509.105815852769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2564.5371327520934</c:v>
+                  <c:v>2032.3443106106383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2364.2502223077031</c:v>
+                  <c:v>2575.3608912428786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2186.0792768278716</c:v>
+                  <c:v>3120.4658506117003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2026.8616956212441</c:v>
+                  <c:v>3652.6945611145038</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1883.9842420853765</c:v>
+                  <c:v>4160.297706410317</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1755.2718181307932</c:v>
+                  <c:v>4634.8281287090931</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1638.9017569598027</c:v>
+                  <c:v>5070.9183080235543</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1533.337133486315</c:v>
+                  <c:v>5465.8595300475999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1437.2744024244957</c:v>
+                  <c:v>5819.086199366192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1349.601939882893</c:v>
+                  <c:v>6131.6468752055398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1269.3669606754054</c:v>
+                  <c:v>6405.7170361872286</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1195.7489259828608</c:v>
+                  <c:v>6644.1839852959156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1128.0380215883642</c:v>
+                  <c:v>6850.3150896846619</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1065.6176278786909</c:v>
+                  <c:v>7027.5075570807066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1007.9499549580862</c:v>
+                  <c:v>7179.1104890935285</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>954.56420440941133</c:v>
+                  <c:v>7308.3066779087058</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>905.04676090100793</c:v>
+                  <c:v>7418.0411164711331</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>859.03302434597708</c:v>
+                  <c:v>7510.9842934882372</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>816.20057553479944</c:v>
+                  <c:v>7589.5201876386527</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>776.26343148946887</c:v>
+                  <c:v>7655.7509090291305</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>738.96719590126668</c:v>
+                  <c:v>7711.5118474840729</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>704.08494835288889</c:v>
+                  <c:v>7758.3928291953707</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>671.41374613776122</c:v>
+                  <c:v>7797.7621111444569</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>640.77163627908362</c:v>
+                  <c:v>7830.7910693395934</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>611.99509425094061</c:v>
+                  <c:v>7858.4782020291277</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>584.93682099878276</c:v>
+                  <c:v>7881.6716210171444</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>559.46384197393786</c:v>
+                  <c:v>7901.0895900528403</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>535.45586167114357</c:v>
+                  <c:v>7917.3389300669778</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>512.80383507902945</c:v>
+                  <c:v>7930.9312804081419</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>491.40872390097559</c:v>
+                  <c:v>7942.2973095044272</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>471.1804106742548</c:v>
+                  <c:v>7951.7990274651547</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>452.03674824128473</c:v>
+                  <c:v>7959.7403817246413</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>433.90272559135872</c:v>
+                  <c:v>7966.3763254886599</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>416.70973403945362</c:v>
+                  <c:v>7971.9205449276596</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>400.39492015601024</c:v>
+                  <c:v>7976.5520199113062</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>384.90061390013039</c:v>
+                  <c:v>7980.4205780647098</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>370.17382211240033</c:v>
+                  <c:v>7983.6515853229712</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>356.165778952106</c:v>
+                  <c:v>7986.3498994092242</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>342.83154606514177</c:v>
+                  <c:v>7988.6031966305209</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>330.1296562825413</c:v>
+                  <c:v>7990.484767558426</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>318.02179550714936</c:v>
+                  <c:v>7992.0558637650684</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>306.47251817355266</c:v>
+                  <c:v>7993.3676658865115</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>295.44899228538497</c:v>
+                  <c:v>7994.4629328493529</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>284.92077056209303</c:v>
+                  <c:v>7995.3773830321006</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>274.85958467873587</c:v>
+                  <c:v>7996.1408503190114</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>265.23915996940889</c:v>
+                  <c:v>7996.7782513081756</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>256.03504829743929</c:v>
+                  <c:v>7997.3103942251446</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>247.22447708190674</c:v>
+                  <c:v>7997.754655241597</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>238.78621271726428</c:v>
+                  <c:v>7998.1255437894652</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>230.70043683668925</c:v>
+                  <c:v>7998.435174989253</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>222.94863405518086</c:v>
+                  <c:v>7998.6936643844974</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>215.51348998945011</c:v>
+                  <c:v>7998.9094577108517</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>208.37879849180842</c:v>
+                  <c:v>7999.089606357823</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>201.52937715748232</c:v>
+                  <c:v>7999.2399974430318</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>194.9509902715684</c:v>
+                  <c:v>7999.3655459608744</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>188.63027845530857</c:v>
+                  <c:v>7999.4703552458486</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>182.55469435332202</c:v>
+                  <c:v>7999.5578509674178</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>176.71244377541532</c:v>
+                  <c:v>7999.6308930168107</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>171.0924317699299</c:v>
+                  <c:v>7999.691868929548</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>165.68421316140029</c:v>
+                  <c:v>7999.7427718880572</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>160.47794713456784</c:v>
+                  <c:v>7999.785265847634</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>155.46435549035047</c:v>
+                  <c:v>7999.8207399101138</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>150.63468423793506</c:v>
+                  <c:v>7999.8503537195493</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>145.98066822135746</c:v>
+                  <c:v>7999.875075361645</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>141.49449850930125</c:v>
+                  <c:v>7999.8957130044028</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>137.16879230385308</c:v>
+                  <c:v>7999.9129413132141</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>132.99656514799858</c:v>
+                  <c:v>7999.9273235032442</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>128.97120523308681</c:v>
+                  <c:v>7999.9393297494662</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>125.08644962663659</c:v>
+                  <c:v>7999.9493525558592</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>121.33636225797495</c:v>
+                  <c:v>7999.9577195859511</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>117.71531351451912</c:v>
+                  <c:v>7999.9647043739997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>114.21796131524582</c:v>
+                  <c:v>7999.9705352668288</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>110.83923354021324</c:v>
+                  <c:v>7999.9754028886</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>107.57431170607038</c:v>
+                  <c:v>7999.9794663724551</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>104.41861578744486</c:v>
+                  <c:v>7999.9828585627683</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>101.3677900930644</c:v>
+                  <c:v>7999.9856903579894</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>98.417690113547778</c:v>
+                  <c:v>7999.9880543360978</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>95.564370265093388</c:v>
+                  <c:v>7999.9900277811084</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>92.804072459879904</c:v>
+                  <c:v>7999.9916752096633</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>90.133215439950092</c:v>
+                  <c:v>7999.993050480175</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>87.548384816740693</c:v>
+                  <c:v>7999.9941985535843</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>85.046323763305907</c:v>
+                  <c:v>7999.9951569632249</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>82.623924310713448</c:v>
+                  <c:v>7999.9959570418687</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>80.278219204114009</c:v>
+                  <c:v>7999.9966249460686</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>78.006374277640163</c:v>
+                  <c:v>7999.9971825112752</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>75.805681310615242</c:v>
+                  <c:v>7999.9976479656825</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>73.67355133057842</c:v>
+                  <c:v>7999.9980365261627</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>71.607508331390449</c:v>
+                  <c:v>7999.9983608957273</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>69.605183377197818</c:v>
+                  <c:v>7999.9986316788363</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>67.664309065329107</c:v>
+                  <c:v>7999.9988577280728</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>65.782714323293163</c:v>
+                  <c:v>7999.9990464335497</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>63.958319516965027</c:v>
+                  <c:v>7999.9992039645258</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>62.189131848799711</c:v>
+                  <c:v>7999.9993354710914</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>60.47324102651892</c:v>
+                  <c:v>7999.9994452525225</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>58.808815184187637</c:v>
+                  <c:v>7999.9995368978553</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>57.194097038946438</c:v>
+                  <c:v>7999.9996134032053</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>55.627400267904321</c:v>
+                  <c:v>7999.9996772697286</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>54.107106090833774</c:v>
+                  <c:v>7999.9997305853794</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>52.631660045355275</c:v>
+                  <c:v>7999.9997750931843</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>51.199568942260235</c:v>
+                  <c:v>7999.9998122482157</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>49.809397989505925</c:v>
+                  <c:v>7999.9998432651664</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>48.459768074231249</c:v>
+                  <c:v>7999.9998691580586</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>47.149353192893436</c:v>
+                  <c:v>7999.9998907733961</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>45.87687802031833</c:v>
+                  <c:v>7999.9999088178383</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>44.641115609096758</c:v>
+                  <c:v>7999.9999238813052</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43.440885211349311</c:v>
+                  <c:v>7999.9999364562582</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>42.275050215428024</c:v>
+                  <c:v>7999.9999469538016</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>41.142516190627461</c:v>
+                  <c:v>7999.9999557171359</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>40.042229033444769</c:v>
+                  <c:v>7999.9999630327502</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>38.973173209359999</c:v>
+                  <c:v>7999.9999691398079</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>37.934370084508402</c:v>
+                  <c:v>7999.9999742379705</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>36.924876341987293</c:v>
+                  <c:v>7999.9999784939064</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>35.943782477883985</c:v>
+                  <c:v>7999.9999820467547</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>34.990211372430451</c:v>
+                  <c:v>7999.9999850126642</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>34.063316931986712</c:v>
+                  <c:v>7999.9999874886007</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>33.162282797830308</c:v>
+                  <c:v>7999.9999895555065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4561,367 +4561,367 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185.79000000000002</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.75304183333333</c:v>
+                  <c:v>47.240000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164.72891474490689</c:v>
+                  <c:v>69.439106222222236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.5855779220185</c:v>
+                  <c:v>90.363742601960837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147.21318438927759</c:v>
+                  <c:v>109.83642515440253</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>139.51957299102128</c:v>
+                  <c:v>127.73939222257063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132.4268223240982</c:v>
+                  <c:v>144.01330954884199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125.86858449361456</c:v>
+                  <c:v>158.65191199700689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>119.78799940675084</c:v>
+                  <c:v>171.69382831366337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114.13604668049472</c:v>
+                  <c:v>183.21293519443242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.87023122610233</c:v>
+                  <c:v>193.30845080830514</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>103.95352595522293</c:v>
+                  <c:v>202.09569588423449</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99.353514554763976</c:v>
+                  <c:v>209.69811729409167</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.041691347490485</c:v>
+                  <c:v>216.2408586959931</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90.992885527841807</c:v>
+                  <c:v>221.84591807037648</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.184784645815583</c:v>
+                  <c:v>226.62876696181479</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.59753786786699</c:v>
+                  <c:v>230.69621500592706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.213423803101904</c:v>
+                  <c:v>234.14526973687308</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>77.016570919465835</c:v>
+                  <c:v>237.06274706563099</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>73.992721054591584</c:v>
+                  <c:v>239.52541559835041</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71.129028441363346</c:v>
+                  <c:v>241.60049556462431</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68.413888158660328</c:v>
+                  <c:v>243.34637221521095</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65.836789085622385</c:v>
+                  <c:v>244.81341933474621</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.388187359017991</c:v>
+                  <c:v>246.04485877183026</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61.059397064549586</c:v>
+                  <c:v>247.07760604474285</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58.842495476845791</c:v>
+                  <c:v>247.94307050229062</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56.730240631787126</c:v>
+                  <c:v>248.66789201470451</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>54.715999393373835</c:v>
+                  <c:v>249.27460568127111</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52.793684484536584</c:v>
+                  <c:v>249.78223247325232</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50.957699201783761</c:v>
+                  <c:v>250.20679786716494</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>49.202888738787415</c:v>
+                  <c:v>250.56178300411352</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.524497212865597</c:v>
+                  <c:v>250.85851423395502</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45.918129627852167</c:v>
+                  <c:v>251.10649744375408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44.379718122615081</c:v>
+                  <c:v>251.31370360252967</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42.90549195091215</c:v>
+                  <c:v>251.48681167401642</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.491950718889385</c:v>
+                  <c:v>251.63141459162097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.135840474165533</c:v>
+                  <c:v>251.75219344644705</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.834132297391456</c:v>
+                  <c:v>251.85306446998106</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37.584003095273097</c:v>
+                  <c:v>251.93730283519807</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36.382818334805066</c:v>
+                  <c:v>252.00764677546414</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.228116493104672</c:v>
+                  <c:v>252.06638504127</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>34.117595026767475</c:v>
+                  <c:v>252.11543028530113</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>33.04909768991115</c:v>
+                  <c:v>252.15638058707341</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32.020603051715725</c:v>
+                  <c:v>252.19057099718188</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>31.030214082868103</c:v>
+                  <c:v>252.21911669450662</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.076148696346657</c:v>
+                  <c:v>252.2429491032114</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29.156731141826</c:v>
+                  <c:v>252.26284610555186</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>28.270384164969848</c:v>
+                  <c:v>252.27945730700378</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>27.415621853283564</c:v>
+                  <c:v>252.2933251579075</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>26.591043099247358</c:v>
+                  <c:v>252.30490260695046</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.795325619339131</c:v>
+                  <c:v>252.31456785302595</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25.027220474446814</c:v>
+                  <c:v>252.32263667035051</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>24.285547043201095</c:v>
+                  <c:v>252.32937270462571</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>23.569188405049299</c:v>
+                  <c:v>252.33499607325732</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22.877087094539235</c:v>
+                  <c:v>252.33969054828952</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22.208241192373691</c:v>
+                  <c:v>252.34360955513606</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21.561700722405341</c:v>
+                  <c:v>252.3468811820035</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20.936564326929918</c:v>
+                  <c:v>252.34961236293</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20.331976195457472</c:v>
+                  <c:v>252.35189237060092</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>19.747123224642767</c:v>
+                  <c:v>252.35379573271831</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>19.181232389276843</c:v>
+                  <c:v>252.3553846669808</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>18.633568306216876</c:v>
+                  <c:v>252.35671111407851</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18.103430974890632</c:v>
+                  <c:v>252.35781843502807</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.59015367958084</c:v>
+                  <c:v>252.35874282823943</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.093101040096641</c:v>
+                  <c:v>252.35951451257526</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16.611667198692938</c:v>
+                  <c:v>252.36015871503238</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>16.145274132221886</c:v>
+                  <c:v>252.36069649530205</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15.693370079508083</c:v>
+                  <c:v>252.36114543414337</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>15.25542807484401</c:v>
+                  <c:v>252.36152020805844</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>14.830944579316105</c:v>
+                  <c:v>252.36183306904522</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>14.419438202404544</c:v>
+                  <c:v>252.36209424510557</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14.020448506960548</c:v>
+                  <c:v>252.36231227459584</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>13.633534891261288</c:v>
+                  <c:v>252.36249428534745</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13.258275542381378</c:v>
+                  <c:v>252.36264622767985</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.894266455607454</c:v>
+                  <c:v>252.362773068922</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.541120515063895</c:v>
+                  <c:v>252.3628789558</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.198466631118158</c:v>
+                  <c:v>252.36296734999951</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.865948930497519</c:v>
+                  <c:v>252.3630411413337</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11.543225995379306</c:v>
+                  <c:v>252.36310274221634</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.229970148016971</c:v>
+                  <c:v>252.36315416652801</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.925866777737777</c:v>
+                  <c:v>252.36319709545404</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.630613707397135</c:v>
+                  <c:v>252.36323293244575</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.343920596601855</c:v>
+                  <c:v>252.36326284910243</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10.065508379222214</c:v>
+                  <c:v>252.36328782347343</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.7951087329023636</c:v>
+                  <c:v>252.3633086720329</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.5324635784521412</c:v>
+                  <c:v>252.36332607637215</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.2773246071622246</c:v>
+                  <c:v>252.36334060548248</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.0294528342300833</c:v>
+                  <c:v>252.36335273435688</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.7886181766177405</c:v>
+                  <c:v>252.3633628595187</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.5545990537848198</c:v>
+                  <c:v>252.36337131198488</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.3271820098529741</c:v>
+                  <c:v>252.36337836808781</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.1061613558612375</c:v>
+                  <c:v>252.36338425850931</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.8913388308670669</c:v>
+                  <c:v>252.36338917582214</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.6825232807354746</c:v>
+                  <c:v>252.36339328078563</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.479530353539487</c:v>
+                  <c:v>252.3633967076014</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.2821822105696068</c:v>
+                  <c:v>252.36339956830076</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.0903072520187118</c:v>
+                  <c:v>252.36340195640719</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.9037398564723125</c:v>
+                  <c:v>252.36340394999391</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.7223201333927562</c:v>
+                  <c:v>252.36340561423631</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.5458936878401932</c:v>
+                  <c:v>252.36340700354276</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.3743113967233542</c:v>
+                  <c:v>252.36340816333316</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.2074291959196417</c:v>
+                  <c:v>252.36340913152395</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6.0451078776471405</c:v>
+                  <c:v>252.36340993976779</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.8872128975110742</c:v>
+                  <c:v>252.36341061448823</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.7336141906842935</c:v>
+                  <c:v>252.36341117774359</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.5841859967157754</c:v>
+                  <c:v>252.36341164794808</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.438806692493082</c:v>
+                  <c:v>252.36341204047395</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.2973586329144018</c:v>
+                  <c:v>252.36341236815377</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.1597279988534464</c:v>
+                  <c:v>252.36341264170028</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5.0258046520261566</c:v>
+                  <c:v>252.36341287005632</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.8954819963921086</c:v>
+                  <c:v>252.36341306068755</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.7686568457458245</c:v>
+                  <c:v>252.36341321982613</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.645229297173942</c:v>
+                  <c:v>252.36341335267474</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4.5251026100736071</c:v>
+                  <c:v>252.36341346357648</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.4081830904455268</c:v>
+                  <c:v>252.36341355615707</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.2943799801920024</c:v>
+                  <c:v>252.36341363344312</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4.1836053511660412</c:v>
+                  <c:v>252.36341369796142</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4.0757740037323895</c:v>
+                  <c:v>252.36341375182113</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.9708033696150973</c:v>
+                  <c:v>252.36341379678316</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.868613418819137</c:v>
+                  <c:v>252.36341383431736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5122,6 +5122,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1489205872"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6133,44 +6134,44 @@
         <v>1200</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2" s="1">
         <f>C$2</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G2" s="1">
         <f>D$2*L2*L2</f>
-        <v>2420</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <f>E$2*L2</f>
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <f>F2-G2-H2</f>
-        <v>-4070</v>
+        <v>8000</v>
       </c>
       <c r="J2" s="1">
         <f>G2+H2</f>
-        <v>4070</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <f>I2/B$2</f>
-        <v>-3.3916666666666666</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L2" s="2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>L2*3.6</f>
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6179,35 +6180,35 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">C$2</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G66" si="1">D$2*L3*L3</f>
-        <v>2130.7360555555556</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" si="2">E$2*L3</f>
-        <v>1548.25</v>
+        <v>200</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I66" si="3">F3-G3-H3</f>
-        <v>-3678.9860555555556</v>
+        <v>7746.666666666667</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J66" si="4">G3+H3</f>
-        <v>3678.9860555555556</v>
+        <v>253.33333333333334</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K66" si="5">I3/B$2</f>
-        <v>-3.065821712962963</v>
+        <v>6.4555555555555557</v>
       </c>
       <c r="L3" s="1">
         <f>L2+K2</f>
-        <v>51.608333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" si="6">L3*3.6</f>
-        <v>185.79000000000002</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6216,35 +6217,35 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>1885.1003475310342</v>
+        <v>206.63125925925931</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>1456.275348611111</v>
+        <v>393.66666666666669</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>-3341.375696142145</v>
+        <v>7399.7020740740736</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="4"/>
-        <v>3341.375696142145</v>
+        <v>600.29792592592594</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="5"/>
-        <v>-2.784479746785121</v>
+        <v>6.1664183950617284</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L67" si="7">L3+K3</f>
-        <v>48.542511620370369</v>
+        <v>13.122222222222224</v>
       </c>
       <c r="M4">
         <f t="shared" si="6"/>
-        <v>174.75304183333333</v>
+        <v>47.240000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6253,35 +6254,35 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>1675.0379847552347</v>
+        <v>446.46198823528351</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>1372.7409562075575</v>
+        <v>578.65921851851863</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>-3047.7789409627921</v>
+        <v>6974.8787932461983</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>3047.7789409627921</v>
+        <v>1025.1212067538022</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="5"/>
-        <v>-2.5398157841356603</v>
+        <v>5.8123989943718319</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="7"/>
-        <v>45.758031873585246</v>
+        <v>19.288640617283953</v>
       </c>
       <c r="M5">
         <f t="shared" si="6"/>
-        <v>164.72891474490689</v>
+        <v>69.439106222222236</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6290,35 +6291,35 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>1494.2513615634871</v>
+        <v>756.07462750309537</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>1296.5464826834875</v>
+        <v>753.03118834967358</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>-2790.7978442469748</v>
+        <v>6490.8941841472315</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>2790.7978442469748</v>
+        <v>1509.105815852769</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="5"/>
-        <v>-2.3256648702058125</v>
+        <v>5.40907848678936</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="7"/>
-        <v>43.218216089449584</v>
+        <v>25.101039611655786</v>
       </c>
       <c r="M6">
         <f t="shared" si="6"/>
-        <v>155.5855779220185</v>
+        <v>90.363742601960837</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6327,35 +6328,35 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>1337.7605961747802</v>
+        <v>1117.0407676572841</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>1226.7765365773132</v>
+        <v>915.30354295335439</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>-2564.5371327520934</v>
+        <v>5967.6556893893612</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="4"/>
-        <v>2564.5371327520934</v>
+        <v>2032.3443106106383</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="5"/>
-        <v>-2.1371142772934113</v>
+        <v>4.9730464078244676</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="7"/>
-        <v>40.892551219243771</v>
+        <v>30.510118098445147</v>
       </c>
       <c r="M7">
         <f t="shared" si="6"/>
-        <v>147.21318438927759</v>
+        <v>109.83642515440253</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6364,35 +6365,35 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>1201.5871140491925</v>
+        <v>1510.8659560547901</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>1162.6631082585106</v>
+        <v>1064.4949351880884</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>-2364.2502223077031</v>
+        <v>5424.639108757121</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>2364.2502223077031</v>
+        <v>2575.3608912428786</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="5"/>
-        <v>-1.9702085185897527</v>
+        <v>4.5205325906309346</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="7"/>
-        <v>38.755436941950357</v>
+        <v>35.483164506269617</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>139.51957299102128</v>
+        <v>127.73939222257063</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6401,35 +6402,35 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>1082.5224241270537</v>
+        <v>1920.3549377046836</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>1103.5568527008181</v>
+        <v>1200.1109129070167</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>-2186.0792768278716</v>
+        <v>4879.5341493882997</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="4"/>
-        <v>2186.0792768278716</v>
+        <v>3120.4658506117003</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="5"/>
-        <v>-1.8217327306898929</v>
+        <v>4.0662784578235831</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="7"/>
-        <v>36.785228423360607</v>
+        <v>40.003697096900552</v>
       </c>
       <c r="M9">
         <f t="shared" si="6"/>
-        <v>132.4268223240982</v>
+        <v>144.01330954884199</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -6438,35 +6439,35 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>977.95682484112274</v>
+        <v>2330.5952944727796</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>1048.9048707801214</v>
+        <v>1322.0992666417242</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>-2026.8616956212441</v>
+        <v>4347.3054388854962</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>2026.8616956212441</v>
+        <v>3652.6945611145038</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="5"/>
-        <v>-1.6890514130177035</v>
+        <v>3.62275453240458</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="7"/>
-        <v>34.963495692670712</v>
+        <v>44.069975554724138</v>
       </c>
       <c r="M10">
         <f t="shared" si="6"/>
-        <v>125.86858449361456</v>
+        <v>158.65191199700689</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -6475,35 +6476,35 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>885.75091369578638</v>
+        <v>2729.5158037964552</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>998.23332838959027</v>
+        <v>1430.7819026138616</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>-1883.9842420853765</v>
+        <v>3839.702293589683</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="4"/>
-        <v>1883.9842420853765</v>
+        <v>4160.297706410317</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="5"/>
-        <v>-1.5699868684044804</v>
+        <v>3.1997519113247357</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="7"/>
-        <v>33.274444279653011</v>
+        <v>47.692730087128716</v>
       </c>
       <c r="M11">
         <f t="shared" si="6"/>
-        <v>119.78799940675084</v>
+        <v>171.69382831366337</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -6512,35 +6513,35 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>804.13809579333747</v>
+        <v>3108.05366875549</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>951.13372233745588</v>
+        <v>1526.7744599536034</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>-1755.2718181307932</v>
+        <v>3365.171871290906</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="4"/>
-        <v>1755.2718181307932</v>
+        <v>4634.8281287090931</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="5"/>
-        <v>-1.4627265151089943</v>
+        <v>2.8043098927424217</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="7"/>
-        <v>31.70445741124853</v>
+        <v>50.892481998453448</v>
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
-        <v>114.13604668049472</v>
+        <v>183.21293519443242</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -6549,35 +6550,35 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>731.64983007561648</v>
+        <v>3460.0145512876784</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>907.2519268841861</v>
+        <v>1610.9037567358762</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="3"/>
-        <v>-1638.9017569598027</v>
+        <v>2929.0816919764447</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="4"/>
-        <v>1638.9017569598027</v>
+        <v>5070.9183080235543</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="5"/>
-        <v>-1.3657514641331689</v>
+        <v>2.4409014099803708</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="7"/>
-        <v>30.241730896139536</v>
+        <v>53.696791891195872</v>
       </c>
       <c r="M13">
         <f t="shared" si="6"/>
-        <v>108.87023122610233</v>
+        <v>193.30845080830514</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6586,35 +6587,35 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>667.05775052612387</v>
+        <v>3781.7287310123129</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>866.27938296019101</v>
+        <v>1684.1307990352873</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>-1533.337133486315</v>
+        <v>2534.1404699524001</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>1533.337133486315</v>
+        <v>5465.8595300475999</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="5"/>
-        <v>-1.2777809445719293</v>
+        <v>2.1117837249603335</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="7"/>
-        <v>28.875979432006368</v>
+        <v>56.137693301176242</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>103.95352595522293</v>
+        <v>202.09569588423449</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6623,35 +6624,35 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>609.32844780146274</v>
+        <v>4071.6018885820949</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>827.94595462303312</v>
+        <v>1747.4843107840973</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="3"/>
-        <v>-1437.2744024244957</v>
+        <v>2180.913800633808</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="4"/>
-        <v>1437.2744024244957</v>
+        <v>5819.086199366192</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="5"/>
-        <v>-1.1977286686870798</v>
+        <v>1.81742816719484</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="7"/>
-        <v>27.598198487434438</v>
+        <v>58.249477026136574</v>
       </c>
       <c r="M15">
         <f t="shared" si="6"/>
-        <v>99.353514554763976</v>
+        <v>209.69811729409167</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6660,35 +6661,35 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>557.58784532047218</v>
+        <v>4329.6397194055971</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>792.01409456242072</v>
+        <v>1802.0071557999424</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>-1349.601939882893</v>
+        <v>1868.3531247944604</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="4"/>
-        <v>1349.601939882893</v>
+        <v>6131.6468752055398</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="5"/>
-        <v>-1.1246682832357442</v>
+        <v>1.556960937328717</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="7"/>
-        <v>26.400469818747357</v>
+        <v>60.066905193331415</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>95.041691347490485</v>
+        <v>216.2408586959931</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -6697,35 +6698,35 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>511.09291461005699</v>
+        <v>4557.0010522674247</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>758.27404606534833</v>
+        <v>1848.7159839198039</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="3"/>
-        <v>-1269.3669606754054</v>
+        <v>1594.2829638127714</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="4"/>
-        <v>1269.3669606754054</v>
+        <v>6405.7170361872286</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="5"/>
-        <v>-1.0578058005628379</v>
+        <v>1.3285691365106429</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="7"/>
-        <v>25.275801535511611</v>
+        <v>61.623866130660133</v>
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
-        <v>90.992885527841807</v>
+        <v>221.84591807037648</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -6734,35 +6735,35 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>469.20905393439756</v>
+        <v>4755.6109272807926</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>726.53987204846317</v>
+        <v>1888.5730580151233</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="3"/>
-        <v>-1195.7489259828608</v>
+        <v>1355.8160147040842</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="4"/>
-        <v>1195.7489259828608</v>
+        <v>6644.1839852959156</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="5"/>
-        <v>-0.99645743831905065</v>
+        <v>1.1298466789200701</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="7"/>
-        <v>24.217995734948772</v>
+        <v>62.952435267170777</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
-        <v>87.184784645815583</v>
+        <v>226.62876696181479</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -6771,35 +6772,35 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>431.39187268947262</v>
+        <v>4927.8466313019362</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>696.64614889889162</v>
+        <v>1922.4684583827254</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="3"/>
-        <v>-1128.0380215883642</v>
+        <v>1149.6849103153384</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="4"/>
-        <v>1128.0380215883642</v>
+        <v>6850.3150896846619</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="5"/>
-        <v>-0.94003168465697018</v>
+        <v>0.95807075859611535</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="7"/>
-        <v>23.221538296629721</v>
+        <v>64.082281946090845</v>
       </c>
       <c r="M19">
         <f t="shared" si="6"/>
-        <v>83.59753786786699</v>
+        <v>230.69621500592706</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -6808,35 +6809,35 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>397.1724295195084</v>
+        <v>5076.2969759400976</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>668.44519835918254</v>
+        <v>1951.2105811406091</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="3"/>
-        <v>-1065.6176278786909</v>
+        <v>972.49244291929335</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="4"/>
-        <v>1065.6176278786909</v>
+        <v>7027.5075570807066</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="5"/>
-        <v>-0.88801468989890908</v>
+        <v>0.81041036909941111</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="7"/>
-        <v>22.281506611972752</v>
+        <v>65.040352704686967</v>
       </c>
       <c r="M20">
         <f t="shared" si="6"/>
-        <v>80.213423803101904</v>
+        <v>234.14526973687308</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -6845,35 +6846,35 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>366.14519729587101</v>
+        <v>5203.5875968799373</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>641.80475766221525</v>
+        <v>1975.5228922135914</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="3"/>
-        <v>-1007.9499549580862</v>
+        <v>820.88951090647129</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="4"/>
-        <v>1007.9499549580862</v>
+        <v>7179.1104890935285</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="5"/>
-        <v>-0.8399582957984052</v>
+        <v>0.68407459242205937</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="7"/>
-        <v>21.393491922073842</v>
+        <v>65.850763073786382</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
-        <v>77.016570919465835</v>
+        <v>237.06274706563099</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -6882,35 +6883,35 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>337.95819562114815</v>
+        <v>5312.2615479224523</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>616.60600878826313</v>
+        <v>1996.0451299862534</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="3"/>
-        <v>-954.56420440941133</v>
+        <v>691.69332209129425</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="4"/>
-        <v>954.56420440941133</v>
+        <v>7308.3066779087058</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="5"/>
-        <v>-0.79547017034117606</v>
+        <v>0.57641110174274524</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="7"/>
-        <v>20.553533626275438</v>
+        <v>66.534837666208446</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
-        <v>73.992721054591584</v>
+        <v>239.52541559835041</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -6919,35 +6920,35 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>312.30485722297999</v>
+        <v>5404.7036534325971</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>592.74190367802794</v>
+        <v>2013.3374630385358</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="3"/>
-        <v>-905.04676090100793</v>
+        <v>581.95888352886709</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="4"/>
-        <v>905.04676090100793</v>
+        <v>7418.0411164711331</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="5"/>
-        <v>-0.75420563408417329</v>
+        <v>0.48496573627405593</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="7"/>
-        <v>19.758063455934263</v>
+        <v>67.111248767951196</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
-        <v>71.129028441363346</v>
+        <v>241.60049556462431</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -6956,35 +6957,35 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>288.91728969047432</v>
+        <v>5483.0978583614797</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>570.11573465550271</v>
+        <v>2027.8864351267578</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="3"/>
-        <v>-859.03302434597708</v>
+        <v>489.01570651176257</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="4"/>
-        <v>859.03302434597708</v>
+        <v>7510.9842934882372</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="5"/>
-        <v>-0.71586085362164753</v>
+        <v>0.40751308875980213</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="7"/>
-        <v>19.00385782185009</v>
+        <v>67.596214504225259</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
-        <v>68.413888158660328</v>
+        <v>243.34637221521095</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -6993,35 +6994,35 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>267.56066648794615</v>
+        <v>5549.4083598491006</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>548.63990904685329</v>
+        <v>2040.1118277895516</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="3"/>
-        <v>-816.20057553479944</v>
+        <v>410.47981236134774</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="4"/>
-        <v>816.20057553479944</v>
+        <v>7589.5201876386527</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="5"/>
-        <v>-0.68016714627899955</v>
+        <v>0.34206651030112312</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="7"/>
-        <v>18.287996968228441</v>
+        <v>68.003727592985058</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
-        <v>65.836789085622385</v>
+        <v>244.81341933474621</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -7030,35 +7031,35 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>248.02853683098567</v>
+        <v>5605.377085930545</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>528.2348946584832</v>
+        <v>2050.3738230985855</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="3"/>
-        <v>-776.26343148946887</v>
+        <v>344.24909097086947</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="4"/>
-        <v>776.26343148946887</v>
+        <v>7655.7509090291305</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="5"/>
-        <v>-0.64688619290789073</v>
+        <v>0.28687424247572457</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="7"/>
-        <v>17.607829821949441</v>
+        <v>68.345794103286181</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
-        <v>63.388187359017991</v>
+        <v>246.04485877183026</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -7067,35 +7068,35 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>230.13888703002016</v>
+        <v>5652.5317971112163</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>508.82830887124658</v>
+        <v>2058.980050372857</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="3"/>
-        <v>-738.96719590126668</v>
+        <v>288.48815251592669</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="4"/>
-        <v>738.96719590126668</v>
+        <v>7711.5118474840729</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="5"/>
-        <v>-0.61580599658438895</v>
+        <v>0.24040679376327223</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="7"/>
-        <v>16.960943629041552</v>
+        <v>68.6326683457619</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
-        <v>61.059397064549586</v>
+        <v>247.07760604474285</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -7104,35 +7105,35 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>213.73081937917391</v>
+        <v>5692.2005750096159</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>490.35412897371492</v>
+        <v>2066.1922541857552</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="3"/>
-        <v>-704.08494835288889</v>
+        <v>241.60717080462882</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="4"/>
-        <v>704.08494835288889</v>
+        <v>7758.3928291953707</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="5"/>
-        <v>-0.58673745696074076</v>
+        <v>0.20133930900385735</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="7"/>
-        <v>16.345137632457163</v>
+        <v>68.87307513952517</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
-        <v>58.842495476845791</v>
+        <v>247.94307050229062</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -7141,35 +7142,35 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>198.66174087286856</v>
+        <v>5725.5296776885862</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>472.75200526489266</v>
+        <v>2072.2324334558707</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>-671.41374613776122</v>
+        <v>202.23788885554313</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="4"/>
-        <v>671.41374613776122</v>
+        <v>7797.7621111444569</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="5"/>
-        <v>-0.55951145511480105</v>
+        <v>0.16853157404628594</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="7"/>
-        <v>15.758400175496423</v>
+        <v>69.074414448529026</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
-        <v>56.730240631787126</v>
+        <v>248.66789201470451</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -7178,35 +7179,35 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>184.80497466763495</v>
+        <v>5753.5026886623336</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>455.96666161144861</v>
+        <v>2077.2883806772593</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="3"/>
-        <v>-640.77163627908362</v>
+        <v>169.20893066040708</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="4"/>
-        <v>640.77163627908362</v>
+        <v>7830.7910693395934</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="5"/>
-        <v>-0.53397636356590306</v>
+        <v>0.1410074422170059</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="7"/>
-        <v>15.198888720381621</v>
+        <v>69.24294602257531</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>54.715999393373835</v>
+        <v>249.27460568127111</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -7215,35 +7216,35 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>172.04772354646906</v>
+        <v>5776.9595980853583</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>439.94737070447155</v>
+        <v>2081.5186039437694</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="3"/>
-        <v>-611.99509425094061</v>
+        <v>141.52179797087229</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="4"/>
-        <v>611.99509425094061</v>
+        <v>7858.4782020291277</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="5"/>
-        <v>-0.50999591187578386</v>
+        <v>0.11793483164239357</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="7"/>
-        <v>14.664912356815718</v>
+        <v>69.383953464792313</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
-        <v>52.793684484536584</v>
+        <v>249.78223247325232</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -7252,35 +7253,35 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="1"/>
-        <v>160.2893276505848</v>
+        <v>5796.6149721241036</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>424.647493348198</v>
+        <v>2085.0566488930408</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="3"/>
-        <v>-584.93682099878276</v>
+        <v>118.32837898285561</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="4"/>
-        <v>584.93682099878276</v>
+        <v>7881.6716210171444</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="5"/>
-        <v>-0.48744735083231899</v>
+        <v>9.8606982485713007E-2</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="7"/>
-        <v>14.154916444939934</v>
+        <v>69.5018882964347</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
-        <v>50.957699201783761</v>
+        <v>250.20679786716494</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -7289,35 +7290,35 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="1"/>
-        <v>149.43976915070948</v>
+        <v>5813.0747316852276</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>410.02407282322844</v>
+        <v>2088.0148583676128</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="3"/>
-        <v>-559.46384197393786</v>
+        <v>98.910409947159678</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="4"/>
-        <v>559.46384197393786</v>
+        <v>7901.0895900528403</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="5"/>
-        <v>-0.46621986831161488</v>
+        <v>8.2425341622633069E-2</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="7"/>
-        <v>13.667469094107615</v>
+        <v>69.60049527892042</v>
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
-        <v>49.202888738787415</v>
+        <v>250.56178300411352</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -7326,35 +7327,35 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="1"/>
-        <v>139.41838489726359</v>
+        <v>5826.8513114506859</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v>396.03747677387997</v>
+        <v>2090.4876186162919</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="3"/>
-        <v>-535.45586167114357</v>
+        <v>82.661069933022191</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="4"/>
-        <v>535.45586167114357</v>
+        <v>7917.3389300669778</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="5"/>
-        <v>-0.44621321805928632</v>
+        <v>6.8884224944185155E-2</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="7"/>
-        <v>13.201249225795999</v>
+        <v>69.682920620543058</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
-        <v>47.524497212865597</v>
+        <v>250.85851423395502</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -7363,35 +7364,35 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="1"/>
-        <v>130.15275484692808</v>
+        <v>5838.3771350435245</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
-        <v>382.65108023210138</v>
+        <v>2092.5541453646174</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="3"/>
-        <v>-512.80383507902945</v>
+        <v>69.068719591858098</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="4"/>
-        <v>512.80383507902945</v>
+        <v>7930.9312804081419</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="5"/>
-        <v>-0.42733652923252452</v>
+        <v>5.7557266326548416E-2</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="7"/>
-        <v>12.755036007736713</v>
+        <v>69.751804845487243</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
-        <v>45.918129627852167</v>
+        <v>251.10649744375408</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -7400,35 +7401,35 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
-        <v>121.57773954584995</v>
+        <v>5848.0164461500126</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v>369.83098435512562</v>
+        <v>2094.2808633544141</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="3"/>
-        <v>-491.40872390097559</v>
+        <v>57.702690495573279</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="4"/>
-        <v>491.40872390097559</v>
+        <v>7942.2973095044272</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="5"/>
-        <v>-0.40950726991747965</v>
+        <v>4.8085575412977734E-2</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="7"/>
-        <v>12.327699478504188</v>
+        <v>69.809362111813797</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
-        <v>44.379718122615081</v>
+        <v>251.31370360252967</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -7437,35 +7438,35 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="1"/>
-        <v>113.63464441665354</v>
+        <v>5856.0755968483509</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v>357.54576625760126</v>
+        <v>2095.7234306168034</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="3"/>
-        <v>-471.1804106742548</v>
+        <v>48.200972534845732</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="4"/>
-        <v>471.1804106742548</v>
+        <v>7951.7990274651547</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="5"/>
-        <v>-0.39265034222854567</v>
+        <v>4.0167477112371446E-2</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="7"/>
-        <v>11.918192208586708</v>
+        <v>69.857447687226781</v>
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
-        <v>42.90549195091215</v>
+        <v>251.48681167401642</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -7474,35 +7475,35 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="1"/>
-        <v>106.27049225053983</v>
+        <v>5862.8119267944667</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
-        <v>345.76625599074487</v>
+        <v>2096.9284549301747</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="3"/>
-        <v>-452.03674824128473</v>
+        <v>40.259618275358662</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="4"/>
-        <v>452.03674824128473</v>
+        <v>7959.7403817246413</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="5"/>
-        <v>-0.37669729020107062</v>
+        <v>3.3549681896132215E-2</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="7"/>
-        <v>11.525541866358163</v>
+        <v>69.897615164339157</v>
       </c>
       <c r="M38">
         <f t="shared" si="6"/>
-        <v>41.491950718889385</v>
+        <v>251.63141459162097</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -7511,35 +7512,35 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
-        <v>99.437388306645943</v>
+        <v>5868.4413801016008</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
-        <v>334.46533728471275</v>
+        <v>2097.9349453870586</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="3"/>
-        <v>-433.90272559135872</v>
+        <v>33.623674511340596</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="4"/>
-        <v>433.90272559135872</v>
+        <v>7966.3763254886599</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="5"/>
-        <v>-0.3615856046594656</v>
+        <v>2.8019728759450496E-2</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="7"/>
-        <v>11.148844576157092</v>
+        <v>69.931164846235291</v>
       </c>
       <c r="M39">
         <f t="shared" si="6"/>
-        <v>40.135840474165533</v>
+        <v>251.75219344644705</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -7548,35 +7549,35 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
-        <v>93.091964894524821</v>
+        <v>5873.1450076778174</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>323.61776914492879</v>
+        <v>2098.7755372498423</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="3"/>
-        <v>-416.70973403945362</v>
+        <v>28.079455072340352</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="4"/>
-        <v>416.70973403945362</v>
+        <v>7971.9205449276596</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="5"/>
-        <v>-0.34725811169954468</v>
+        <v>2.3399545893616959E-2</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="7"/>
-        <v>10.787258971497627</v>
+        <v>69.959184574994737</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
-        <v>38.834132297391456</v>
+        <v>251.85306446998106</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -7585,35 +7586,35 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
-        <v>87.194894362067785</v>
+        <v>5877.0744962846557</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>313.20002579394247</v>
+        <v>2099.4775236266505</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="3"/>
-        <v>-400.39492015601024</v>
+        <v>23.447980088693839</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="4"/>
-        <v>400.39492015601024</v>
+        <v>7976.5520199113062</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="5"/>
-        <v>-0.33366243346334185</v>
+        <v>1.9539983407244867E-2</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="7"/>
-        <v>10.440000859798083</v>
+        <v>69.982584120888347</v>
       </c>
       <c r="M41">
         <f t="shared" si="6"/>
-        <v>37.584003095273097</v>
+        <v>251.93730283519807</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -7622,35 +7623,35 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="1"/>
-        <v>81.710461110088147</v>
+        <v>5880.3568549358415</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>303.19015279004225</v>
+        <v>2100.0637231288679</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="3"/>
-        <v>-384.90061390013039</v>
+        <v>19.579421935290611</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="4"/>
-        <v>384.90061390013039</v>
+        <v>7980.4205780647098</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="5"/>
-        <v>-0.32075051158344198</v>
+        <v>1.6316184946075511E-2</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="7"/>
-        <v>10.106338426334741</v>
+        <v>70.002124104295589</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
-        <v>36.382818334805066</v>
+        <v>252.00764677546414</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -7659,35 +7660,35 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="1"/>
-        <v>76.606184669861335</v>
+        <v>5883.0983766457211</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
-        <v>293.56763744253897</v>
+        <v>2100.55320867725</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="3"/>
-        <v>-370.17382211240033</v>
+        <v>16.348414677028813</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>370.17382211240033</v>
+        <v>7983.6515853229712</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="5"/>
-        <v>-0.30847818509366692</v>
+        <v>1.3623678897524012E-2</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="7"/>
-        <v>9.7855879147512983</v>
+        <v>70.018440289241667</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
-        <v>35.228116493104672</v>
+        <v>252.06638504127</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -7696,35 +7697,35 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="1"/>
-        <v>71.852487062377065</v>
+        <v>5885.387980365048</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
-        <v>284.31329188972893</v>
+        <v>2100.9619190441758</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="3"/>
-        <v>-356.165778952106</v>
+        <v>13.650100590776219</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="4"/>
-        <v>356.165778952106</v>
+        <v>7986.3498994092242</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="5"/>
-        <v>-0.29680481579342166</v>
+        <v>1.1375083825646849E-2</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="7"/>
-        <v>9.4771097296576308</v>
+        <v>70.032063968139198</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
-        <v>34.117595026767475</v>
+        <v>252.11543028530113</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -7733,35 +7734,35 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="1"/>
-        <v>67.422398649215467</v>
+        <v>5887.3000250715759</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
-        <v>275.40914741592627</v>
+        <v>2101.303171558945</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="3"/>
-        <v>-342.83154606514177</v>
+        <v>11.39680336947913</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="4"/>
-        <v>342.83154606514177</v>
+        <v>7988.6031966305209</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="5"/>
-        <v>-0.28569295505428483</v>
+        <v>9.4973361412326093E-3</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="7"/>
-        <v>9.1803049138642088</v>
+        <v>70.043439051964839</v>
       </c>
       <c r="M45">
         <f t="shared" si="6"/>
-        <v>33.04909768991115</v>
+        <v>252.15638058707341</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -7770,35 +7771,35 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="1"/>
-        <v>63.291297518243603</v>
+        <v>5888.8966759152436</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
-        <v>266.83835876429771</v>
+        <v>2101.5880916431825</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="3"/>
-        <v>-330.1296562825413</v>
+        <v>9.5152324415739713</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="4"/>
-        <v>330.1296562825413</v>
+        <v>7990.484767558426</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="5"/>
-        <v>-0.27510804690211776</v>
+        <v>7.9293603679783092E-3</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="7"/>
-        <v>8.8946119588099233</v>
+        <v>70.052936388106076</v>
       </c>
       <c r="M46">
         <f t="shared" si="6"/>
-        <v>32.020603051715725</v>
+        <v>252.19057099718188</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -7807,35 +7808,35 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="1"/>
-        <v>59.436678149915181</v>
+        <v>5890.2298913108461</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
-        <v>258.5851173572342</v>
+        <v>2101.8259724542218</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="3"/>
-        <v>-318.02179550714936</v>
+        <v>7.9441362349321025</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="4"/>
-        <v>318.02179550714936</v>
+        <v>7992.0558637650684</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>-0.26501816292262448</v>
+        <v>6.6201135291100851E-3</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="7"/>
-        <v>8.6195039119078061</v>
+        <v>70.060865748474058</v>
       </c>
       <c r="M47">
         <f t="shared" si="6"/>
-        <v>31.030214082868103</v>
+        <v>252.21911669450662</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -7844,35 +7845,35 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="1"/>
-        <v>55.8379457039972</v>
+        <v>5891.3430900264166</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
-        <v>250.63457246955545</v>
+        <v>2102.024575860095</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="3"/>
-        <v>-306.47251817355266</v>
+        <v>6.6323341134884686</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="4"/>
-        <v>306.47251817355266</v>
+        <v>7993.3676658865115</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="5"/>
-        <v>-0.25539376514462719</v>
+        <v>5.526945094573724E-3</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="7"/>
-        <v>8.3544857489851818</v>
+        <v>70.067485862003167</v>
       </c>
       <c r="M48">
         <f t="shared" si="6"/>
-        <v>30.076148696346657</v>
+        <v>252.2429491032114</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -7881,35 +7882,35 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="1"/>
-        <v>52.476232770168281</v>
+        <v>5892.2725486364207</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
-        <v>242.97275951521667</v>
+        <v>2102.1903842129323</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="3"/>
-        <v>-295.44899228538497</v>
+        <v>5.5370671506470899</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="4"/>
-        <v>295.44899228538497</v>
+        <v>7994.4629328493529</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="5"/>
-        <v>-0.24620749357115415</v>
+        <v>4.6142226255392414E-3</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="7"/>
-        <v>8.0990919838405553</v>
+        <v>70.07301280709774</v>
       </c>
       <c r="M49">
         <f t="shared" si="6"/>
-        <v>29.156731141826</v>
+        <v>252.26284610555186</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -7918,35 +7919,35 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="1"/>
-        <v>49.334235854010977</v>
+        <v>5893.0485721404029</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
-        <v>235.58653470808204</v>
+        <v>2102.3288108916981</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="3"/>
-        <v>-284.92077056209303</v>
+        <v>4.6226169678989208</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="4"/>
-        <v>284.92077056209303</v>
+        <v>7995.3773830321006</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="5"/>
-        <v>-0.23743397546841086</v>
+        <v>3.8521808065824338E-3</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="7"/>
-        <v>7.8528844902694015</v>
+        <v>70.077627029723274</v>
       </c>
       <c r="M50">
         <f t="shared" si="6"/>
-        <v>28.270384164969848</v>
+        <v>252.27945730700378</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -7955,35 +7956,35 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="1"/>
-        <v>46.39606923470614</v>
+        <v>5893.6964740031153</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
-        <v>228.46351544402972</v>
+        <v>2102.4443763158961</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="3"/>
-        <v>-274.85958467873587</v>
+        <v>3.8591496809885939</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="4"/>
-        <v>274.85958467873587</v>
+        <v>7996.1408503190114</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="5"/>
-        <v>-0.22904965389894655</v>
+        <v>3.2159580674904951E-3</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="7"/>
-        <v>7.6154505148009903</v>
+        <v>70.081479210529864</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
-        <v>27.415621853283564</v>
+        <v>252.2933251579075</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -7992,35 +7993,35 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="1"/>
-        <v>43.647134142347568</v>
+        <v>5894.2373962502552</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
-        <v>221.59202582706132</v>
+        <v>2102.5408550579205</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="3"/>
-        <v>-265.23915996940889</v>
+        <v>3.2217486918243594</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="4"/>
-        <v>265.23915996940889</v>
+        <v>7996.7782513081756</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="5"/>
-        <v>-0.22103263330784073</v>
+        <v>2.6847905765202996E-3</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="7"/>
-        <v>7.386400860902044</v>
+        <v>70.084695168597349</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
-        <v>26.591043099247358</v>
+        <v>252.30490260695046</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -8029,35 +8030,35 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="1"/>
-        <v>41.074001469613194</v>
+        <v>5894.6889954499284</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
-        <v>214.9610468278261</v>
+        <v>2102.6213987752162</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="3"/>
-        <v>-256.03504829743929</v>
+        <v>2.6896057748554085</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="4"/>
-        <v>256.03504829743929</v>
+        <v>7997.3103942251446</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="5"/>
-        <v>-0.21336254024786608</v>
+        <v>2.2413381457128405E-3</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="7"/>
-        <v>7.165368227594203</v>
+        <v>70.087379959173873</v>
       </c>
       <c r="M53">
         <f t="shared" si="6"/>
-        <v>25.795325619339131</v>
+        <v>252.31456785302595</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -8066,35 +8067,35 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="1"/>
-        <v>38.664306461516652</v>
+        <v>5895.0660163220091</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="2"/>
-        <v>208.5601706203901</v>
+        <v>2102.6886389195874</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="3"/>
-        <v>-247.22447708190674</v>
+        <v>2.245344758403462</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="4"/>
-        <v>247.22447708190674</v>
+        <v>7997.754655241597</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="5"/>
-        <v>-0.20602039756825563</v>
+        <v>1.8711206320028851E-3</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="7"/>
-        <v>6.9520056873463369</v>
+        <v>70.089621297319582</v>
       </c>
       <c r="M54">
         <f t="shared" si="6"/>
-        <v>25.027220474446814</v>
+        <v>252.32263667035051</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -8103,35 +8104,35 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="1"/>
-        <v>36.406654023921817</v>
+        <v>5895.380771250917</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="2"/>
-        <v>202.37955869334246</v>
+        <v>2102.7447725385477</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="3"/>
-        <v>-238.78621271726428</v>
+        <v>1.8744562105352998</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="4"/>
-        <v>238.78621271726428</v>
+        <v>7998.1255437894652</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="5"/>
-        <v>-0.19898851059772024</v>
+        <v>1.5620468421127499E-3</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="7"/>
-        <v>6.7459852897780817</v>
+        <v>70.091492417951585</v>
       </c>
       <c r="M55">
         <f t="shared" si="6"/>
-        <v>24.285547043201095</v>
+        <v>252.32937270462571</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -8140,35 +8141,35 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="1"/>
-        <v>34.290533461278422</v>
+        <v>5895.6435410454424</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="2"/>
-        <v>196.40990337541083</v>
+        <v>2102.7916339438107</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="3"/>
-        <v>-230.70043683668925</v>
+        <v>1.5648250107469721</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="4"/>
-        <v>230.70043683668925</v>
+        <v>7998.435174989253</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="5"/>
-        <v>-0.19225036403057438</v>
+        <v>1.3040208422891435E-3</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="7"/>
-        <v>6.5469967791803612</v>
+        <v>70.093054464793696</v>
       </c>
       <c r="M56">
         <f t="shared" si="6"/>
-        <v>23.569188405049299</v>
+        <v>252.33499607325732</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -8177,35 +8178,35 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="1"/>
-        <v>32.306241600687258</v>
+        <v>5895.8629098154179</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="2"/>
-        <v>190.6423924544936</v>
+        <v>2102.8307545690795</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="3"/>
-        <v>-222.94863405518086</v>
+        <v>1.3063356155025758</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="4"/>
-        <v>222.94863405518086</v>
+        <v>7998.6936643844974</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="5"/>
-        <v>-0.18579052837931739</v>
+        <v>1.0886130129188131E-3</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="7"/>
-        <v>6.354746415149787</v>
+        <v>70.094358485635979</v>
       </c>
       <c r="M57">
         <f t="shared" si="6"/>
-        <v>22.877087094539235</v>
+        <v>252.33969054828952</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -8214,35 +8215,35 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="1"/>
-        <v>30.444813386336033</v>
+        <v>5896.0460447513842</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" si="2"/>
-        <v>185.06867660311408</v>
+        <v>2102.863412959467</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="3"/>
-        <v>-215.51348998945011</v>
+        <v>1.0905422891487433</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="4"/>
-        <v>215.51348998945011</v>
+        <v>7998.9094577108517</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="5"/>
-        <v>-0.17959457499120843</v>
+        <v>9.0878524095728609E-4</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="7"/>
-        <v>6.1689558867704699</v>
+        <v>70.095447098648904</v>
       </c>
       <c r="M58">
         <f t="shared" si="6"/>
-        <v>22.208241192373691</v>
+        <v>252.34360955513606</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -8251,35 +8252,35 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="1"/>
-        <v>28.697959138430562</v>
+        <v>5896.1989298411272</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" si="2"/>
-        <v>179.68083935337785</v>
+        <v>2102.8906765166957</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="3"/>
-        <v>-208.37879849180842</v>
+        <v>0.91039364217704133</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="4"/>
-        <v>208.37879849180842</v>
+        <v>7999.089606357823</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="5"/>
-        <v>-0.17364899874317369</v>
+        <v>7.5866136848086777E-4</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="7"/>
-        <v>5.9893613117792617</v>
+        <v>70.096355883889856</v>
       </c>
       <c r="M59">
         <f t="shared" si="6"/>
-        <v>21.561700722405341</v>
+        <v>252.3468811820035</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -8288,35 +8289,35 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="1"/>
-        <v>27.058007766399655</v>
+        <v>5896.3265610852814</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" si="2"/>
-        <v>174.47136939108265</v>
+        <v>2102.91343635775</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="3"/>
-        <v>-201.52937715748232</v>
+        <v>0.76000255696862951</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="4"/>
-        <v>201.52937715748232</v>
+        <v>7999.2399974430318</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="5"/>
-        <v>-0.16794114763123527</v>
+        <v>6.3333546414052458E-4</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="7"/>
-        <v>5.8157123130360882</v>
+        <v>70.097114545258336</v>
       </c>
       <c r="M60">
         <f t="shared" si="6"/>
-        <v>20.936564326929918</v>
+        <v>252.34961236293</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -8325,35 +8326,35 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="1"/>
-        <v>25.517855309422796</v>
+        <v>5896.4331095391999</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" si="2"/>
-        <v>169.4331349621456</v>
+        <v>2102.9324364216745</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="3"/>
-        <v>-194.9509902715684</v>
+        <v>0.63445403912555776</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="4"/>
-        <v>194.9509902715684</v>
+        <v>7999.3655459608744</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="5"/>
-        <v>-0.16245915855964033</v>
+        <v>5.2871169927129816E-4</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="7"/>
-        <v>5.647771165404853</v>
+        <v>70.09774788072248</v>
       </c>
       <c r="M61">
         <f t="shared" si="6"/>
-        <v>20.331976195457472</v>
+        <v>252.35189237060092</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -8362,35 +8363,35 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="1"/>
-        <v>24.070918249952207</v>
+        <v>5896.5220574731966</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="2"/>
-        <v>164.55936020535637</v>
+        <v>2102.9482977726525</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="3"/>
-        <v>-188.63027845530857</v>
+        <v>0.52964475415092238</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="4"/>
-        <v>188.63027845530857</v>
+        <v>7999.4703552458486</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="5"/>
-        <v>-0.15719189871275716</v>
+        <v>4.4137062845910199E-4</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="7"/>
-        <v>5.4853120068452128</v>
+        <v>70.098276592421755</v>
       </c>
       <c r="M62">
         <f t="shared" si="6"/>
-        <v>19.747123224642767</v>
+        <v>252.35379573271831</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -8399,35 +8400,35 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="1"/>
-        <v>22.711091109348331</v>
+        <v>5896.5963120759116</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" si="2"/>
-        <v>159.84360324397369</v>
+        <v>2102.9615388915067</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="3"/>
-        <v>-182.55469435332202</v>
+        <v>0.44214903258171034</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="4"/>
-        <v>182.55469435332202</v>
+        <v>7999.5578509674178</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="5"/>
-        <v>-0.15212891196110168</v>
+        <v>3.6845752715142531E-4</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="7"/>
-        <v>5.3281201081324561</v>
+        <v>70.09871796305022</v>
       </c>
       <c r="M63">
         <f t="shared" si="6"/>
-        <v>19.181232389276843</v>
+        <v>252.3553846669808</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -8436,35 +8437,35 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="1"/>
-        <v>21.432707890274695</v>
+        <v>5896.6583003994892</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" si="2"/>
-        <v>155.27973588514064</v>
+        <v>2102.972592617321</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="3"/>
-        <v>-176.71244377541532</v>
+        <v>0.36910698318979485</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="4"/>
-        <v>176.71244377541532</v>
+        <v>7999.6308930168107</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="5"/>
-        <v>-0.1472603698128461</v>
+        <v>3.0758915265816236E-4</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="7"/>
-        <v>5.1759911961713545</v>
+        <v>70.099086420577365</v>
       </c>
       <c r="M64">
         <f t="shared" si="6"/>
-        <v>18.633568306216876</v>
+        <v>252.35671111407851</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -8473,35 +8474,35 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="1"/>
-        <v>20.23050697917466</v>
+        <v>5896.7100486376476</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" si="2"/>
-        <v>150.86192479075524</v>
+        <v>2102.9818202919005</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="3"/>
-        <v>-171.0924317699299</v>
+        <v>0.30813107045196375</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="4"/>
-        <v>171.0924317699299</v>
+        <v>7999.691868929548</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="5"/>
-        <v>-0.14257702647494158</v>
+        <v>2.5677589204330315E-4</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="7"/>
-        <v>5.0287308263585082</v>
+        <v>70.09939400973002</v>
       </c>
       <c r="M65">
         <f t="shared" si="6"/>
-        <v>18.103430974890632</v>
+        <v>252.35781843502807</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -8510,35 +8511,35 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="1"/>
-        <v>19.099599164893295</v>
+        <v>5896.7532483193954</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="2"/>
-        <v>146.58461399650699</v>
+        <v>2102.9895235686618</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="3"/>
-        <v>-165.68421316140029</v>
+        <v>0.25722811194282258</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" si="4"/>
-        <v>165.68421316140029</v>
+        <v>7999.7427718880572</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="5"/>
-        <v>-0.13807017763450025</v>
+        <v>2.1435675995235215E-4</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="7"/>
-        <v>4.8861537998835667</v>
+        <v>70.09965078562206</v>
       </c>
       <c r="M66">
         <f t="shared" si="6"/>
-        <v>17.59015367958084</v>
+        <v>252.35874282823943</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -8547,35 +8548,35 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F122" si="8">C$2</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" ref="G67:G122" si="9">D$2*L67*L67</f>
-        <v>18.035438467095855</v>
+        <v>5896.7893115761735</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H122" si="10">E$2*L67</f>
-        <v>142.442508667472</v>
+        <v>2102.9959542714605</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" ref="I67:I122" si="11">F67-G67-H67</f>
-        <v>-160.47794713456784</v>
+        <v>0.21473415236596338</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ref="J67:J122" si="12">G67+H67</f>
-        <v>160.47794713456784</v>
+        <v>7999.785265847634</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" ref="K67:K122" si="13">I67/B$2</f>
-        <v>-0.13373162261213986</v>
+        <v>1.7894512697163616E-4</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="7"/>
-        <v>4.7480836222490668</v>
+        <v>70.099865142382015</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M122" si="14">L67*3.6</f>
-        <v>17.093101040096641</v>
+        <v>252.35951451257526</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -8584,35 +8585,35 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="9"/>
-        <v>17.033795501242647</v>
+        <v>5896.8194172848443</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" si="10"/>
-        <v>138.43055998910782</v>
+        <v>2103.0013226252695</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="11"/>
-        <v>-155.46435549035047</v>
+        <v>0.17926008988615649</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="12"/>
-        <v>155.46435549035047</v>
+        <v>7999.8207399101138</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" si="13"/>
-        <v>-0.12955362957529207</v>
+        <v>1.4938340823846373E-4</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" ref="L68:L122" si="15">L67+K67</f>
-        <v>4.6143519996369271</v>
+        <v>70.100044087508991</v>
       </c>
       <c r="M68">
         <f t="shared" si="14"/>
-        <v>16.611667198692938</v>
+        <v>252.36015871503238</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -8621,35 +8622,35 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="9"/>
-        <v>16.090733136086001</v>
+        <v>5896.8445495920323</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" si="10"/>
-        <v>134.54395110184905</v>
+        <v>2103.005804127517</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" si="11"/>
-        <v>-150.63468423793506</v>
+        <v>0.14964628045072459</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" si="12"/>
-        <v>150.63468423793506</v>
+        <v>7999.8503537195493</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="13"/>
-        <v>-0.12552890353161256</v>
+        <v>1.2470523370893715E-4</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" si="15"/>
-        <v>4.4847983700616352</v>
+        <v>70.100193470917233</v>
       </c>
       <c r="M69">
         <f t="shared" si="14"/>
-        <v>16.145274132221886</v>
+        <v>252.36069649530205</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -8658,35 +8659,35 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="9"/>
-        <v>15.202584225456761</v>
+        <v>5896.865530077117</v>
       </c>
       <c r="H70" s="1">
         <f t="shared" si="10"/>
-        <v>130.77808399590069</v>
+        <v>2103.009545284528</v>
       </c>
       <c r="I70" s="1">
         <f t="shared" si="11"/>
-        <v>-145.98066822135746</v>
+        <v>0.12492463835496892</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" si="12"/>
-        <v>145.98066822135746</v>
+        <v>7999.875075361645</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="13"/>
-        <v>-0.12165055685113121</v>
+        <v>1.0410386529580743E-4</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" si="15"/>
-        <v>4.3592694665300229</v>
+        <v>70.100318176150935</v>
       </c>
       <c r="M70">
         <f t="shared" si="14"/>
-        <v>15.693370079508083</v>
+        <v>252.36114543414337</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -8695,35 +8696,35 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="9"/>
-        <v>14.365931218934495</v>
+        <v>5896.8830446039156</v>
       </c>
       <c r="H71" s="1">
         <f t="shared" si="10"/>
-        <v>127.12856729036675</v>
+        <v>2103.0126684004872</v>
       </c>
       <c r="I71" s="1">
         <f t="shared" si="11"/>
-        <v>-141.49449850930125</v>
+        <v>0.10428699559724919</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" si="12"/>
-        <v>141.49449850930125</v>
+        <v>7999.8957130044028</v>
       </c>
       <c r="K71" s="1">
         <f t="shared" si="13"/>
-        <v>-0.11791208209108438</v>
+        <v>8.6905829664374321E-5</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" si="15"/>
-        <v>4.2376189096788917</v>
+        <v>70.100422280016232</v>
       </c>
       <c r="M71">
         <f t="shared" si="14"/>
-        <v>15.25542807484401</v>
+        <v>252.36152020805844</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -8732,35 +8733,35 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="9"/>
-        <v>13.577587476218875</v>
+        <v>5896.8976657378371</v>
       </c>
       <c r="H72" s="1">
         <f t="shared" si="10"/>
-        <v>123.59120482763421</v>
+        <v>2103.015275575377</v>
       </c>
       <c r="I72" s="1">
         <f t="shared" si="11"/>
-        <v>-137.16879230385308</v>
+        <v>8.7058686785894679E-2</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" si="12"/>
-        <v>137.16879230385308</v>
+        <v>7999.9129413132141</v>
       </c>
       <c r="K72" s="1">
         <f t="shared" si="13"/>
-        <v>-0.11430732691987756</v>
+        <v>7.2548905654912227E-5</v>
       </c>
       <c r="L72" s="1">
         <f t="shared" si="15"/>
-        <v>4.119706827587807</v>
+        <v>70.100509185845894</v>
       </c>
       <c r="M72">
         <f t="shared" si="14"/>
-        <v>14.830944579316105</v>
+        <v>252.36183306904522</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -8769,35 +8770,35 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="9"/>
-        <v>12.834580127960717</v>
+        <v>5896.909871460698</v>
       </c>
       <c r="H73" s="1">
         <f t="shared" si="10"/>
-        <v>120.16198502003787</v>
+        <v>2103.0174520425462</v>
       </c>
       <c r="I73" s="1">
         <f t="shared" si="11"/>
-        <v>-132.99656514799858</v>
+        <v>7.2676496755775588E-2</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" si="12"/>
-        <v>132.99656514799858</v>
+        <v>7999.9273235032442</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="13"/>
-        <v>-0.11083047095666548</v>
+        <v>6.0563747296479657E-5</v>
       </c>
       <c r="L73" s="1">
         <f t="shared" si="15"/>
-        <v>4.005399500667929</v>
+        <v>70.100581734751543</v>
       </c>
       <c r="M73">
         <f t="shared" si="14"/>
-        <v>14.419438202404544</v>
+        <v>252.36209424510557</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -8806,35 +8807,35 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="9"/>
-        <v>12.134134341748906</v>
+        <v>5896.9200607945013</v>
       </c>
       <c r="H74" s="1">
         <f t="shared" si="10"/>
-        <v>116.8370708913379</v>
+        <v>2103.0192689549654</v>
       </c>
       <c r="I74" s="1">
         <f t="shared" si="11"/>
-        <v>-128.97120523308681</v>
+        <v>6.0670250533348735E-2</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" si="12"/>
-        <v>128.97120523308681</v>
+        <v>7999.9393297494662</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" si="13"/>
-        <v>-0.10747600436090567</v>
+        <v>5.0558542111123949E-5</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" si="15"/>
-        <v>3.8945690297112634</v>
+        <v>70.10064229849884</v>
       </c>
       <c r="M74">
         <f t="shared" si="14"/>
-        <v>14.020448506960548</v>
+        <v>252.36231227459584</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -8843,35 +8844,35 @@
       </c>
       <c r="F75" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="9"/>
-        <v>11.473658866125861</v>
+        <v>5896.928566844631</v>
       </c>
       <c r="H75" s="1">
         <f t="shared" si="10"/>
-        <v>113.61279076051073</v>
+        <v>2103.0207857112287</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" si="11"/>
-        <v>-125.08644962663659</v>
+        <v>5.0647444140395237E-2</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="12"/>
-        <v>125.08644962663659</v>
+        <v>7999.9493525558592</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="13"/>
-        <v>-0.10423870802219716</v>
+        <v>4.2206203450329367E-5</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" si="15"/>
-        <v>3.7870930253503579</v>
+        <v>70.100692857040954</v>
       </c>
       <c r="M75">
         <f t="shared" si="14"/>
-        <v>13.633534891261288</v>
+        <v>252.36249428534745</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -8880,35 +8881,35 @@
       </c>
       <c r="F76" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="9"/>
-        <v>10.850732738130137</v>
+        <v>5896.9356676886191</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" si="10"/>
-        <v>110.48562951984482</v>
+        <v>2103.0220518973319</v>
       </c>
       <c r="I76" s="1">
         <f t="shared" si="11"/>
-        <v>-121.33636225797495</v>
+        <v>4.2280414048946113E-2</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" si="12"/>
-        <v>121.33636225797495</v>
+        <v>7999.9577195859511</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="13"/>
-        <v>-0.10111363521497913</v>
+        <v>3.5233678374121762E-5</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" si="15"/>
-        <v>3.6828543173281605</v>
+        <v>70.1007350632444</v>
       </c>
       <c r="M76">
         <f t="shared" si="14"/>
-        <v>13.258275542381378</v>
+        <v>252.36264622767985</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -8917,35 +8918,35 @@
       </c>
       <c r="F77" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="9"/>
-        <v>10.263093051123679</v>
+        <v>5896.9415954663164</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" si="10"/>
-        <v>107.45222046339545</v>
+        <v>2103.0231089076833</v>
       </c>
       <c r="I77" s="1">
         <f t="shared" si="11"/>
-        <v>-117.71531351451912</v>
+        <v>3.5295626000333868E-2</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" si="12"/>
-        <v>117.71531351451912</v>
+        <v>7999.9647043739997</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="13"/>
-        <v>-9.8096094595432601E-2</v>
+        <v>2.9413021666944891E-5</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" si="15"/>
-        <v>3.5817406821131814</v>
+        <v>70.100770296922775</v>
       </c>
       <c r="M77">
         <f t="shared" si="14"/>
-        <v>12.894266455607454</v>
+        <v>252.362773068922</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -8954,35 +8955,35 @@
       </c>
       <c r="F78" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="9"/>
-        <v>9.7086236897133649</v>
+        <v>5896.9465439684955</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" si="10"/>
-        <v>104.50933762553245</v>
+        <v>2103.0239912983334</v>
       </c>
       <c r="I78" s="1">
         <f t="shared" si="11"/>
-        <v>-114.21796131524582</v>
+        <v>2.9464733171153057E-2</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" si="12"/>
-        <v>114.21796131524582</v>
+        <v>7999.9705352668288</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="13"/>
-        <v>-9.5181634429371512E-2</v>
+        <v>2.4553944309294215E-5</v>
       </c>
       <c r="L78" s="1">
         <f t="shared" si="15"/>
-        <v>3.4836445875177486</v>
+        <v>70.10079970994444</v>
       </c>
       <c r="M78">
         <f t="shared" si="14"/>
-        <v>12.541120515063895</v>
+        <v>252.3628789558</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -8991,35 +8992,35 @@
       </c>
       <c r="F79" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="9"/>
-        <v>9.1853449475619264</v>
+        <v>5896.9506749719376</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" si="10"/>
-        <v>101.65388859265131</v>
+        <v>2103.0247279166624</v>
       </c>
       <c r="I79" s="1">
         <f t="shared" si="11"/>
-        <v>-110.83923354021324</v>
+        <v>2.4597111399998539E-2</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="12"/>
-        <v>110.83923354021324</v>
+        <v>7999.9754028886</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="13"/>
-        <v>-9.2366027950177704E-2</v>
+        <v>2.0497592833332115E-5</v>
       </c>
       <c r="L79" s="1">
         <f t="shared" si="15"/>
-        <v>3.3884629530883772</v>
+        <v>70.100824263888754</v>
       </c>
       <c r="M79">
         <f t="shared" si="14"/>
-        <v>12.198466631118158</v>
+        <v>252.36296734999951</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -9028,35 +9029,35 @@
       </c>
       <c r="F80" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="9"/>
-        <v>8.6914039519243946</v>
+        <v>5896.9541235280076</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" si="10"/>
-        <v>98.882907754145975</v>
+        <v>2103.0253428444476</v>
       </c>
       <c r="I80" s="1">
         <f t="shared" si="11"/>
-        <v>-107.57431170607038</v>
+        <v>2.053362754486443E-2</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" si="12"/>
-        <v>107.57431170607038</v>
+        <v>7999.9794663724551</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" si="13"/>
-        <v>-8.9645259755058646E-2</v>
+        <v>1.7111356287387023E-5</v>
       </c>
       <c r="L80" s="1">
         <f t="shared" si="15"/>
-        <v>3.2960969251381993</v>
+        <v>70.100844761481582</v>
       </c>
       <c r="M80">
         <f t="shared" si="14"/>
-        <v>11.865948930497519</v>
+        <v>252.3630411413337</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -9065,35 +9066,35 @@
       </c>
       <c r="F81" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="9"/>
-        <v>8.2250658259506526</v>
+        <v>5896.9570023776323</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" si="10"/>
-        <v>96.193549961494213</v>
+        <v>2103.025856185136</v>
       </c>
       <c r="I81" s="1">
         <f t="shared" si="11"/>
-        <v>-104.41861578744486</v>
+        <v>1.7141437231657619E-2</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" si="12"/>
-        <v>104.41861578744486</v>
+        <v>7999.9828585627683</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" si="13"/>
-        <v>-8.7015513156204052E-2</v>
+        <v>1.4284531026381349E-5</v>
       </c>
       <c r="L81" s="1">
         <f t="shared" si="15"/>
-        <v>3.2064516653831405</v>
+        <v>70.100861872837868</v>
       </c>
       <c r="M81">
         <f t="shared" si="14"/>
-        <v>11.543225995379306</v>
+        <v>252.36310274221634</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -9102,35 +9103,35 @@
       </c>
       <c r="F82" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="9"/>
-        <v>7.7847055262563156</v>
+        <v>5896.9594056369233</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" si="10"/>
-        <v>93.583084566808083</v>
+        <v>2103.0262847210665</v>
       </c>
       <c r="I82" s="1">
         <f t="shared" si="11"/>
-        <v>-101.3677900930644</v>
+        <v>1.4309642010175594E-2</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" si="12"/>
-        <v>101.3677900930644</v>
+        <v>7999.9856903579894</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" si="13"/>
-        <v>-8.4473158410886998E-2</v>
+        <v>1.1924701675146329E-5</v>
       </c>
       <c r="L82" s="1">
         <f t="shared" si="15"/>
-        <v>3.1194361522269363</v>
+        <v>70.100876157368887</v>
       </c>
       <c r="M82">
         <f t="shared" si="14"/>
-        <v>11.229970148016971</v>
+        <v>252.36315416652801</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -9139,35 +9140,35 @@
       </c>
       <c r="F83" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="9"/>
-        <v>7.3688002990663017</v>
+        <v>5896.9614118739801</v>
       </c>
       <c r="H83" s="1">
         <f t="shared" si="10"/>
-        <v>91.04888981448147</v>
+        <v>2103.0266424621173</v>
       </c>
       <c r="I83" s="1">
         <f t="shared" si="11"/>
-        <v>-98.417690113547778</v>
+        <v>1.1945663902679371E-2</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" si="12"/>
-        <v>98.417690113547778</v>
+        <v>7999.9880543360978</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="13"/>
-        <v>-8.2014741761289811E-2</v>
+        <v>9.9547199188994764E-6</v>
       </c>
       <c r="L83" s="1">
         <f t="shared" si="15"/>
-        <v>3.0349629938160492</v>
+        <v>70.100888082070568</v>
       </c>
       <c r="M83">
         <f t="shared" si="14"/>
-        <v>10.925866777737777</v>
+        <v>252.36319709545404</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -9176,35 +9177,35 @@
       </c>
       <c r="F84" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" si="9"/>
-        <v>6.9759227034506077</v>
+        <v>5896.9630866773941</v>
       </c>
       <c r="H84" s="1">
         <f t="shared" si="10"/>
-        <v>88.588447561642781</v>
+        <v>2103.0269411037143</v>
       </c>
       <c r="I84" s="1">
         <f t="shared" si="11"/>
-        <v>-95.564370265093388</v>
+        <v>9.9722188915620791E-3</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" si="12"/>
-        <v>95.564370265093388</v>
+        <v>7999.9900277811084</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" si="13"/>
-        <v>-7.9636975220911163E-2</v>
+        <v>8.3101824096350652E-6</v>
       </c>
       <c r="L84" s="1">
         <f t="shared" si="15"/>
-        <v>2.9529482520547594</v>
+        <v>70.100898036790483</v>
       </c>
       <c r="M84">
         <f t="shared" si="14"/>
-        <v>10.630613707397135</v>
+        <v>252.36323293244575</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -9213,35 +9214,35 @@
       </c>
       <c r="F85" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="9"/>
-        <v>6.6047341548644489</v>
+        <v>5896.9644848004764</v>
       </c>
       <c r="H85" s="1">
         <f t="shared" si="10"/>
-        <v>86.199338305015459</v>
+        <v>2103.0271904091869</v>
       </c>
       <c r="I85" s="1">
         <f t="shared" si="11"/>
-        <v>-92.804072459879904</v>
+        <v>8.3247903367009712E-3</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" si="12"/>
-        <v>92.804072459879904</v>
+        <v>7999.9916752096633</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="13"/>
-        <v>-7.7336727049899925E-2</v>
+        <v>6.9373252805841426E-6</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" si="15"/>
-        <v>2.8733112768338485</v>
+        <v>70.100906346972891</v>
       </c>
       <c r="M85">
         <f t="shared" si="14"/>
-        <v>10.343920596601855</v>
+        <v>252.36326284910243</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -9250,35 +9251,35 @@
       </c>
       <c r="F86" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="9"/>
-        <v>6.2539789464316424</v>
+        <v>5896.96565195123</v>
       </c>
       <c r="H86" s="1">
         <f t="shared" si="10"/>
-        <v>83.879236493518448</v>
+        <v>2103.027398528945</v>
       </c>
       <c r="I86" s="1">
         <f t="shared" si="11"/>
-        <v>-90.133215439950092</v>
+        <v>6.9495198249569512E-3</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" si="12"/>
-        <v>90.133215439950092</v>
+        <v>7999.993050480175</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="13"/>
-        <v>-7.5111012866625082E-2</v>
+        <v>5.7912665207974591E-6</v>
       </c>
       <c r="L86" s="1">
         <f t="shared" si="15"/>
-        <v>2.7959745497839483</v>
+        <v>70.100913284298173</v>
       </c>
       <c r="M86">
         <f t="shared" si="14"/>
-        <v>10.065508379222214</v>
+        <v>252.36328782347343</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -9287,35 +9288,35 @@
       </c>
       <c r="F87" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" si="9"/>
-        <v>5.9224787092209965</v>
+        <v>5896.9666262866431</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" si="10"/>
-        <v>81.625906107519697</v>
+        <v>2103.0275722669408</v>
       </c>
       <c r="I87" s="1">
         <f t="shared" si="11"/>
-        <v>-87.548384816740693</v>
+        <v>5.8014464161715296E-3</v>
       </c>
       <c r="J87" s="1">
         <f t="shared" si="12"/>
-        <v>87.548384816740693</v>
+        <v>7999.9941985535843</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" si="13"/>
-        <v>-7.2956987347283911E-2</v>
+        <v>4.8345386801429416E-6</v>
       </c>
       <c r="L87" s="1">
         <f t="shared" si="15"/>
-        <v>2.7208635369173231</v>
+        <v>70.10091907556469</v>
       </c>
       <c r="M87">
         <f t="shared" si="14"/>
-        <v>9.7951087329023636</v>
+        <v>252.3633086720329</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -9324,35 +9325,35 @@
       </c>
       <c r="F88" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" si="9"/>
-        <v>5.6091272762047284</v>
+        <v>5896.967439660124</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" si="10"/>
-        <v>79.437196487101176</v>
+        <v>2103.0277173031013</v>
       </c>
       <c r="I88" s="1">
         <f t="shared" si="11"/>
-        <v>-85.046323763305907</v>
+        <v>4.8430367746732372E-3</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" si="12"/>
-        <v>85.046323763305907</v>
+        <v>7999.9951569632249</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" si="13"/>
-        <v>-7.0871936469421595E-2</v>
+        <v>4.0358639788943645E-6</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" si="15"/>
-        <v>2.6479065495700391</v>
+        <v>70.100923910103376</v>
       </c>
       <c r="M88">
         <f t="shared" si="14"/>
-        <v>9.5324635784521412</v>
+        <v>252.36332607637215</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -9361,35 +9362,35 @@
       </c>
       <c r="F89" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" si="9"/>
-        <v>5.3128859176949206</v>
+        <v>5896.9681186628486</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" si="10"/>
-        <v>77.311038393018535</v>
+        <v>2103.0278383790205</v>
       </c>
       <c r="I89" s="1">
         <f t="shared" si="11"/>
-        <v>-82.623924310713448</v>
+        <v>4.0429581308671914E-3</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" si="12"/>
-        <v>82.623924310713448</v>
+        <v>7999.9959570418687</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="13"/>
-        <v>-6.8853270258927873E-2</v>
+        <v>3.3691317757226595E-6</v>
       </c>
       <c r="L89" s="1">
         <f t="shared" si="15"/>
-        <v>2.5770346131006177</v>
+        <v>70.100927945967356</v>
       </c>
       <c r="M89">
         <f t="shared" si="14"/>
-        <v>9.2773246071622246</v>
+        <v>252.36334060548248</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -9398,35 +9399,35 @@
       </c>
       <c r="F90" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="9"/>
-        <v>5.0327789188633139</v>
+        <v>5896.9686854930951</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" si="10"/>
-        <v>75.245440285250695</v>
+        <v>2103.0279394529739</v>
       </c>
       <c r="I90" s="1">
         <f t="shared" si="11"/>
-        <v>-80.278219204114009</v>
+        <v>3.375053930994909E-3</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" si="12"/>
-        <v>80.278219204114009</v>
+        <v>7999.9966249460686</v>
       </c>
       <c r="K90" s="1">
         <f t="shared" si="13"/>
-        <v>-6.6898516003428346E-2</v>
+        <v>2.8125449424957573E-6</v>
       </c>
       <c r="L90" s="1">
         <f t="shared" si="15"/>
-        <v>2.5081813428416897</v>
+        <v>70.100931315099132</v>
       </c>
       <c r="M90">
         <f t="shared" si="14"/>
-        <v>9.0294528342300833</v>
+        <v>252.36335273435688</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -9435,35 +9436,35 @@
       </c>
       <c r="F91" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="9"/>
-        <v>4.7678894724923291</v>
+        <v>5896.9691586819526</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" si="10"/>
-        <v>73.238484805147834</v>
+        <v>2103.0280238293226</v>
       </c>
       <c r="I91" s="1">
         <f t="shared" si="11"/>
-        <v>-78.006374277640163</v>
+        <v>2.8174887247587321E-3</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" si="12"/>
-        <v>78.006374277640163</v>
+        <v>7999.9971825112752</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="13"/>
-        <v>-6.5005311898033463E-2</v>
+        <v>2.347907270632277E-6</v>
       </c>
       <c r="L91" s="1">
         <f t="shared" si="15"/>
-        <v>2.4412828268382611</v>
+        <v>70.100934127644081</v>
       </c>
       <c r="M91">
         <f t="shared" si="14"/>
-        <v>8.7886181766177405</v>
+        <v>252.3633628595187</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -9472,35 +9473,35 @@
       </c>
       <c r="F92" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="9"/>
-        <v>4.5173558624084036</v>
+        <v>5896.9695536991421</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" si="10"/>
-        <v>71.288325448206834</v>
+        <v>2103.0280942665404</v>
       </c>
       <c r="I92" s="1">
         <f t="shared" si="11"/>
-        <v>-75.805681310615242</v>
+        <v>2.3520343174823211E-3</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" si="12"/>
-        <v>75.805681310615242</v>
+        <v>7999.9976479656825</v>
       </c>
       <c r="K92" s="1">
         <f t="shared" si="13"/>
-        <v>-6.3171401092179363E-2</v>
+        <v>1.9600285979019344E-6</v>
       </c>
       <c r="L92" s="1">
         <f t="shared" si="15"/>
-        <v>2.3762775149402278</v>
+        <v>70.10093647555135</v>
       </c>
       <c r="M92">
         <f t="shared" si="14"/>
-        <v>8.5545990537848198</v>
+        <v>252.36337131198488</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -9509,35 +9510,35 @@
       </c>
       <c r="F93" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G93" s="1">
         <f t="shared" si="9"/>
-        <v>4.280367915136976</v>
+        <v>5896.9698834587643</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" si="10"/>
-        <v>69.393183415441442</v>
+        <v>2103.0281530673983</v>
       </c>
       <c r="I93" s="1">
         <f t="shared" si="11"/>
-        <v>-73.67355133057842</v>
+        <v>1.9634738373497385E-3</v>
       </c>
       <c r="J93" s="1">
         <f t="shared" si="12"/>
-        <v>73.67355133057842</v>
+        <v>7999.9980365261627</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" si="13"/>
-        <v>-6.1394626108815346E-2</v>
+        <v>1.6362281977914487E-6</v>
       </c>
       <c r="L93" s="1">
         <f t="shared" si="15"/>
-        <v>2.3131061138480482</v>
+        <v>70.100938435579948</v>
       </c>
       <c r="M93">
         <f t="shared" si="14"/>
-        <v>8.3271820098529741</v>
+        <v>252.36337836808781</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -9546,35 +9547,35 @@
       </c>
       <c r="F94" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" si="9"/>
-        <v>4.0561636992134638</v>
+        <v>5896.9701587414829</v>
       </c>
       <c r="H94" s="1">
         <f t="shared" si="10"/>
-        <v>67.551344632176978</v>
+        <v>2103.0282021542444</v>
       </c>
       <c r="I94" s="1">
         <f t="shared" si="11"/>
-        <v>-71.607508331390449</v>
+        <v>1.6391042727263994E-3</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" si="12"/>
-        <v>71.607508331390449</v>
+        <v>7999.9983608957273</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" si="13"/>
-        <v>-5.9672923609492043E-2</v>
+        <v>1.3659202272719996E-6</v>
       </c>
       <c r="L94" s="1">
         <f t="shared" si="15"/>
-        <v>2.2517114877392328</v>
+        <v>70.100940071808139</v>
       </c>
       <c r="M94">
         <f t="shared" si="14"/>
-        <v>8.1061613558612375</v>
+        <v>252.36338425850931</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -9583,35 +9584,35 @@
       </c>
       <c r="F95" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="9"/>
-        <v>3.844026453305581</v>
+        <v>5896.9703885469853</v>
       </c>
       <c r="H95" s="1">
         <f t="shared" si="10"/>
-        <v>65.76115692389223</v>
+        <v>2103.028243131851</v>
       </c>
       <c r="I95" s="1">
         <f t="shared" si="11"/>
-        <v>-69.605183377197818</v>
+        <v>1.368321163681685E-3</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" si="12"/>
-        <v>69.605183377197818</v>
+        <v>7999.9986316788363</v>
       </c>
       <c r="K95" s="1">
         <f t="shared" si="13"/>
-        <v>-5.8004319480998184E-2</v>
+        <v>1.1402676364014041E-6</v>
       </c>
       <c r="L95" s="1">
         <f t="shared" si="15"/>
-        <v>2.1920385641297409</v>
+        <v>70.100941437728366</v>
       </c>
       <c r="M95">
         <f t="shared" si="14"/>
-        <v>7.8913388308670669</v>
+        <v>252.36338917582214</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -9620,35 +9621,35 @@
       </c>
       <c r="F96" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="9"/>
-        <v>3.6432817258668244</v>
+        <v>5896.9705803881925</v>
       </c>
       <c r="H96" s="1">
         <f t="shared" si="10"/>
-        <v>64.021027339462279</v>
+        <v>2103.0282773398803</v>
       </c>
       <c r="I96" s="1">
         <f t="shared" si="11"/>
-        <v>-67.664309065329107</v>
+        <v>1.1422719271649839E-3</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" si="12"/>
-        <v>67.664309065329107</v>
+        <v>7999.9988577280728</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" si="13"/>
-        <v>-5.6386924221107589E-2</v>
+        <v>9.5189327263748662E-7</v>
       </c>
       <c r="L96" s="1">
         <f t="shared" si="15"/>
-        <v>2.1340342446487428</v>
+        <v>70.100942577996008</v>
       </c>
       <c r="M96">
         <f t="shared" si="14"/>
-        <v>7.6825232807354746</v>
+        <v>252.36339328078563</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -9657,35 +9658,35 @@
       </c>
       <c r="F97" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" si="9"/>
-        <v>3.4532947104641067</v>
+        <v>5896.9707405368708</v>
       </c>
       <c r="H97" s="1">
         <f t="shared" si="10"/>
-        <v>62.329419612829057</v>
+        <v>2103.0283058966784</v>
       </c>
       <c r="I97" s="1">
         <f t="shared" si="11"/>
-        <v>-65.782714323293163</v>
+        <v>9.5356645078936708E-4</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" si="12"/>
-        <v>65.782714323293163</v>
+        <v>7999.9990464335497</v>
       </c>
       <c r="K97" s="1">
         <f t="shared" si="13"/>
-        <v>-5.4818928602744302E-2</v>
+        <v>7.9463870899113919E-7</v>
       </c>
       <c r="L97" s="1">
         <f t="shared" si="15"/>
-        <v>2.0776473204276353</v>
+        <v>70.100943529889278</v>
       </c>
       <c r="M97">
         <f t="shared" si="14"/>
-        <v>7.479530353539487</v>
+        <v>252.3633967076014</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -9694,35 +9695,35 @@
       </c>
       <c r="F98" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" si="9"/>
-        <v>3.2734677622182997</v>
+        <v>5896.9708742286866</v>
       </c>
       <c r="H98" s="1">
         <f t="shared" si="10"/>
-        <v>60.684851754746724</v>
+        <v>2103.0283297358396</v>
       </c>
       <c r="I98" s="1">
         <f t="shared" si="11"/>
-        <v>-63.958319516965027</v>
+        <v>7.9603547374063055E-4</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" si="12"/>
-        <v>63.958319516965027</v>
+        <v>7999.9992039645258</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="13"/>
-        <v>-5.3298599597470853E-2</v>
+        <v>6.6336289478385884E-7</v>
       </c>
       <c r="L98" s="1">
         <f t="shared" si="15"/>
-        <v>2.0228283918248908</v>
+        <v>70.100944324527987</v>
       </c>
       <c r="M98">
         <f t="shared" si="14"/>
-        <v>7.2821822105696068</v>
+        <v>252.36339956830076</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -9731,35 +9732,35 @@
       </c>
       <c r="F99" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G99" s="1">
         <f t="shared" si="9"/>
-        <v>3.1032380819771075</v>
+        <v>5896.9709858343649</v>
       </c>
       <c r="H99" s="1">
         <f t="shared" si="10"/>
-        <v>59.085893766822601</v>
+        <v>2103.0283496367265</v>
       </c>
       <c r="I99" s="1">
         <f t="shared" si="11"/>
-        <v>-62.189131848799711</v>
+        <v>6.6452890860091429E-4</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" si="12"/>
-        <v>62.189131848799711</v>
+        <v>7999.9993354710914</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="13"/>
-        <v>-5.1824276540666424E-2</v>
+        <v>5.5377409050076188E-7</v>
       </c>
       <c r="L99" s="1">
         <f t="shared" si="15"/>
-        <v>1.96952979222742</v>
+        <v>70.100944987890884</v>
       </c>
       <c r="M99">
         <f t="shared" si="14"/>
-        <v>7.0903072520187118</v>
+        <v>252.36340195640719</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -9768,35 +9769,35 @@
       </c>
       <c r="F100" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="9"/>
-        <v>2.9420755559163179</v>
+        <v>5896.9710790025729</v>
       </c>
       <c r="H100" s="1">
         <f t="shared" si="10"/>
-        <v>57.531165470602602</v>
+        <v>2103.0283662499492</v>
       </c>
       <c r="I100" s="1">
         <f t="shared" si="11"/>
-        <v>-60.47324102651892</v>
+        <v>5.5474747796324664E-4</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" si="12"/>
-        <v>60.47324102651892</v>
+        <v>7999.9994452525225</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" si="13"/>
-        <v>-5.0394367522099102E-2</v>
+        <v>4.6228956496937219E-7</v>
       </c>
       <c r="L100" s="1">
         <f t="shared" si="15"/>
-        <v>1.9177055156867535</v>
+        <v>70.10094554166497</v>
       </c>
       <c r="M100">
         <f t="shared" si="14"/>
-        <v>6.9037398564723125</v>
+        <v>252.36340394999391</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -9805,35 +9806,35 @@
       </c>
       <c r="F101" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" si="9"/>
-        <v>2.7894807392480003</v>
+        <v>5896.9711567792192</v>
       </c>
       <c r="H101" s="1">
         <f t="shared" si="10"/>
-        <v>56.019334444939638</v>
+        <v>2103.0283801186361</v>
       </c>
       <c r="I101" s="1">
         <f t="shared" si="11"/>
-        <v>-58.808815184187637</v>
+        <v>4.6310214474942768E-4</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" si="12"/>
-        <v>58.808815184187637</v>
+        <v>7999.9995368978553</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" si="13"/>
-        <v>-4.9007345986823034E-2</v>
+        <v>3.8591845395785641E-7</v>
       </c>
       <c r="L101" s="1">
         <f t="shared" si="15"/>
-        <v>1.8673111481646545</v>
+        <v>70.100946003954533</v>
       </c>
       <c r="M101">
         <f t="shared" si="14"/>
-        <v>6.7223201333927562</v>
+        <v>252.36340561423631</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -9842,35 +9843,35 @@
       </c>
       <c r="F102" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G102" s="1">
         <f t="shared" si="9"/>
-        <v>2.6449829736114872</v>
+        <v>5896.9712217070155</v>
       </c>
       <c r="H102" s="1">
         <f t="shared" si="10"/>
-        <v>54.549114065334948</v>
+        <v>2103.0283916961898</v>
       </c>
       <c r="I102" s="1">
         <f t="shared" si="11"/>
-        <v>-57.194097038946438</v>
+        <v>3.8659679466945818E-4</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" si="12"/>
-        <v>57.194097038946438</v>
+        <v>7999.9996134032053</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" si="13"/>
-        <v>-4.7661747532455362E-2</v>
+        <v>3.2216399555788179E-7</v>
       </c>
       <c r="L102" s="1">
         <f t="shared" si="15"/>
-        <v>1.8183038021778315</v>
+        <v>70.100946389872988</v>
       </c>
       <c r="M102">
         <f t="shared" si="14"/>
-        <v>6.5458936878401932</v>
+        <v>252.36340700354276</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -9879,35 +9880,35 @@
       </c>
       <c r="F103" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G103" s="1">
         <f t="shared" si="9"/>
-        <v>2.5081386285430392</v>
+        <v>5896.9712759086187</v>
       </c>
       <c r="H103" s="1">
         <f t="shared" si="10"/>
-        <v>53.119261639361284</v>
+        <v>2103.0284013611094</v>
       </c>
       <c r="I103" s="1">
         <f t="shared" si="11"/>
-        <v>-55.627400267904321</v>
+        <v>3.2273027181872749E-4</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" si="12"/>
-        <v>55.627400267904321</v>
+        <v>7999.9996772697286</v>
       </c>
       <c r="K103" s="1">
         <f t="shared" si="13"/>
-        <v>-4.6356166889920267E-2</v>
+        <v>2.6894189318227292E-7</v>
       </c>
       <c r="L103" s="1">
         <f t="shared" si="15"/>
-        <v>1.7706420546453761</v>
+        <v>70.100946712036986</v>
       </c>
       <c r="M103">
         <f t="shared" si="14"/>
-        <v>6.3743113967233542</v>
+        <v>252.36340816333316</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -9916,35 +9917,35 @@
       </c>
       <c r="F104" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G104" s="1">
         <f t="shared" si="9"/>
-        <v>2.3785294581700964</v>
+        <v>5896.9713211560138</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" si="10"/>
-        <v>51.728576632663675</v>
+        <v>2103.0284094293661</v>
       </c>
       <c r="I104" s="1">
         <f t="shared" si="11"/>
-        <v>-54.107106090833774</v>
+        <v>2.6941462010654504E-4</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" si="12"/>
-        <v>54.107106090833774</v>
+        <v>7999.9997305853794</v>
       </c>
       <c r="K104" s="1">
         <f t="shared" si="13"/>
-        <v>-4.5089255075694813E-2</v>
+        <v>2.2451218342212088E-7</v>
       </c>
       <c r="L104" s="1">
         <f t="shared" si="15"/>
-        <v>1.7242858877554559</v>
+        <v>70.100946980978875</v>
       </c>
       <c r="M104">
         <f t="shared" si="14"/>
-        <v>6.2074291959196417</v>
+        <v>252.36340913152395</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -9953,35 +9954,35 @@
       </c>
       <c r="F105" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" si="9"/>
-        <v>2.2557610649624391</v>
+        <v>5896.9713589284529</v>
       </c>
       <c r="H105" s="1">
         <f t="shared" si="10"/>
-        <v>50.375898980392833</v>
+        <v>2103.0284161647314</v>
       </c>
       <c r="I105" s="1">
         <f t="shared" si="11"/>
-        <v>-52.631660045355275</v>
+        <v>2.2490681567433057E-4</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" si="12"/>
-        <v>52.631660045355275</v>
+        <v>7999.9997750931843</v>
       </c>
       <c r="K105" s="1">
         <f t="shared" si="13"/>
-        <v>-4.3859716704462731E-2</v>
+        <v>1.8742234639527548E-7</v>
       </c>
       <c r="L105" s="1">
         <f t="shared" si="15"/>
-        <v>1.6791966326797612</v>
+        <v>70.100947205491053</v>
       </c>
       <c r="M105">
         <f t="shared" si="14"/>
-        <v>6.0451078776471405</v>
+        <v>252.36340993976779</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -9990,35 +9991,35 @@
       </c>
       <c r="F106" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" si="9"/>
-        <v>2.1394614630012803</v>
+        <v>5896.9713904608143</v>
       </c>
       <c r="H106" s="1">
         <f t="shared" si="10"/>
-        <v>49.060107479258953</v>
+        <v>2103.0284217874018</v>
       </c>
       <c r="I106" s="1">
         <f t="shared" si="11"/>
-        <v>-51.199568942260235</v>
+        <v>1.8775178386931657E-4</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" si="12"/>
-        <v>51.199568942260235</v>
+        <v>7999.9998122482157</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" si="13"/>
-        <v>-4.2666307451883531E-2</v>
+        <v>1.5645981989109713E-7</v>
       </c>
       <c r="L106" s="1">
         <f t="shared" si="15"/>
-        <v>1.6353369159752984</v>
+        <v>70.100947392913397</v>
       </c>
       <c r="M106">
         <f t="shared" si="14"/>
-        <v>5.8872128975110742</v>
+        <v>252.36341061448823</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -10027,35 +10028,35 @@
       </c>
       <c r="F107" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G107" s="1">
         <f t="shared" si="9"/>
-        <v>2.0292797338034756</v>
+        <v>5896.9714167839693</v>
       </c>
       <c r="H107" s="1">
         <f t="shared" si="10"/>
-        <v>47.780118255702448</v>
+        <v>2103.0284264811967</v>
       </c>
       <c r="I107" s="1">
         <f t="shared" si="11"/>
-        <v>-49.809397989505925</v>
+        <v>1.5673483403588762E-4</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" si="12"/>
-        <v>49.809397989505925</v>
+        <v>7999.9998432651664</v>
       </c>
       <c r="K107" s="1">
         <f t="shared" si="13"/>
-        <v>-4.1507831657921601E-2</v>
+        <v>1.3061236169657302E-7</v>
       </c>
       <c r="L107" s="1">
         <f t="shared" si="15"/>
-        <v>1.5926706085234148</v>
+        <v>70.100947549373217</v>
       </c>
       <c r="M107">
         <f t="shared" si="14"/>
-        <v>5.7336141906842935</v>
+        <v>252.36341117774359</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -10064,35 +10065,35 @@
       </c>
       <c r="F108" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G108" s="1">
         <f t="shared" si="9"/>
-        <v>1.9248847682664545</v>
+        <v>5896.9714387584909</v>
       </c>
       <c r="H108" s="1">
         <f t="shared" si="10"/>
-        <v>46.534883305964797</v>
+        <v>2103.0284303995672</v>
       </c>
       <c r="I108" s="1">
         <f t="shared" si="11"/>
-        <v>-48.459768074231249</v>
+        <v>1.3084194188195397E-4</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" si="12"/>
-        <v>48.459768074231249</v>
+        <v>7999.9998691580586</v>
       </c>
       <c r="K108" s="1">
         <f t="shared" si="13"/>
-        <v>-4.0383140061859377E-2</v>
+        <v>1.0903495156829498E-7</v>
       </c>
       <c r="L108" s="1">
         <f t="shared" si="15"/>
-        <v>1.5511627768654932</v>
+        <v>70.10094767998558</v>
       </c>
       <c r="M108">
         <f t="shared" si="14"/>
-        <v>5.5841859967157754</v>
+        <v>252.36341164794808</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -10101,35 +10102,35 @@
       </c>
       <c r="F109" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G109" s="1">
         <f t="shared" si="9"/>
-        <v>1.8259640887844162</v>
+        <v>5896.9714571027798</v>
       </c>
       <c r="H109" s="1">
         <f t="shared" si="10"/>
-        <v>45.323389104109019</v>
+        <v>2103.0284336706163</v>
       </c>
       <c r="I109" s="1">
         <f t="shared" si="11"/>
-        <v>-47.149353192893436</v>
+        <v>1.0922660385404015E-4</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="12"/>
-        <v>47.149353192893436</v>
+        <v>7999.9998907733961</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" si="13"/>
-        <v>-3.9291127660744531E-2</v>
+        <v>9.1022169878366797E-8</v>
       </c>
       <c r="L109" s="1">
         <f t="shared" si="15"/>
-        <v>1.5107796368036339</v>
+        <v>70.100947789020537</v>
       </c>
       <c r="M109">
         <f t="shared" si="14"/>
-        <v>5.438806692493082</v>
+        <v>252.36341204047395</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -10138,35 +10139,35 @@
       </c>
       <c r="F110" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G110" s="1">
         <f t="shared" si="9"/>
-        <v>1.7322227460316506</v>
+        <v>5896.9714724165569</v>
       </c>
       <c r="H110" s="1">
         <f t="shared" si="10"/>
-        <v>44.144655274286677</v>
+        <v>2103.0284364012814</v>
       </c>
       <c r="I110" s="1">
         <f t="shared" si="11"/>
-        <v>-45.87687802031833</v>
+        <v>9.1182161668257322E-5</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="12"/>
-        <v>45.87687802031833</v>
+        <v>7999.9999088178383</v>
       </c>
       <c r="K110" s="1">
         <f t="shared" si="13"/>
-        <v>-3.8230731683598605E-2</v>
+        <v>7.5985134723547771E-8</v>
       </c>
       <c r="L110" s="1">
         <f t="shared" si="15"/>
-        <v>1.4714885091428893</v>
+        <v>70.10094788004271</v>
       </c>
       <c r="M110">
         <f t="shared" si="14"/>
-        <v>5.2973586329144018</v>
+        <v>252.36341236815377</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -10175,35 +10176,35 @@
       </c>
       <c r="F111" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G111" s="1">
         <f t="shared" si="9"/>
-        <v>1.6433822853180367</v>
+        <v>5896.9714852004699</v>
       </c>
       <c r="H111" s="1">
         <f t="shared" si="10"/>
-        <v>42.997733323778725</v>
+        <v>2103.0284386808357</v>
       </c>
       <c r="I111" s="1">
         <f t="shared" si="11"/>
-        <v>-44.641115609096758</v>
+        <v>7.6118694323668024E-5</v>
       </c>
       <c r="J111" s="1">
         <f t="shared" si="12"/>
-        <v>44.641115609096758</v>
+        <v>7999.9999238813052</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="13"/>
-        <v>-3.7200929674247298E-2</v>
+        <v>6.3432245269723359E-8</v>
       </c>
       <c r="L111" s="1">
         <f t="shared" si="15"/>
-        <v>1.4332577774592907</v>
+        <v>70.100947956027852</v>
       </c>
       <c r="M111">
         <f t="shared" si="14"/>
-        <v>5.1597279988534464</v>
+        <v>252.36341264170028</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -10212,35 +10213,35 @@
       </c>
       <c r="F112" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G112" s="1">
         <f t="shared" si="9"/>
-        <v>1.5591797777980096</v>
+        <v>5896.9714958724553</v>
       </c>
       <c r="H112" s="1">
         <f t="shared" si="10"/>
-        <v>41.881705433551303</v>
+        <v>2103.0284405838029</v>
       </c>
       <c r="I112" s="1">
         <f t="shared" si="11"/>
-        <v>-43.440885211349311</v>
+        <v>6.3543741816829424E-5</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" si="12"/>
-        <v>43.440885211349311</v>
+        <v>7999.9999364562582</v>
       </c>
       <c r="K112" s="1">
         <f t="shared" si="13"/>
-        <v>-3.6200737676124424E-2</v>
+        <v>5.2953118180691188E-8</v>
       </c>
       <c r="L112" s="1">
         <f t="shared" si="15"/>
-        <v>1.3960568477850435</v>
+        <v>70.100948019460091</v>
       </c>
       <c r="M112">
         <f t="shared" si="14"/>
-        <v>5.0258046520261566</v>
+        <v>252.36341287005632</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -10249,35 +10250,35 @@
       </c>
       <c r="F113" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G113" s="1">
         <f t="shared" si="9"/>
-        <v>1.4793669121604485</v>
+        <v>5896.9715047814061</v>
       </c>
       <c r="H113" s="1">
         <f t="shared" si="10"/>
-        <v>40.795683303267573</v>
+        <v>2103.0284421723959</v>
       </c>
       <c r="I113" s="1">
         <f t="shared" si="11"/>
-        <v>-42.275050215428024</v>
+        <v>5.3046197990624933E-5</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="12"/>
-        <v>42.275050215428024</v>
+        <v>7999.9999469538016</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="13"/>
-        <v>-3.5229208512856686E-2</v>
+        <v>4.4205164992187445E-8</v>
       </c>
       <c r="L113" s="1">
         <f t="shared" si="15"/>
-        <v>1.359856110108919</v>
+        <v>70.100948072413203</v>
       </c>
       <c r="M113">
         <f t="shared" si="14"/>
-        <v>4.8954819963921086</v>
+        <v>252.36341306068755</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -10286,35 +10287,35 @@
       </c>
       <c r="F114" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G114" s="1">
         <f t="shared" si="9"/>
-        <v>1.4037091427455874</v>
+        <v>5896.9715122185844</v>
       </c>
       <c r="H114" s="1">
         <f t="shared" si="10"/>
-        <v>39.73880704788187</v>
+        <v>2103.028443498551</v>
       </c>
       <c r="I114" s="1">
         <f t="shared" si="11"/>
-        <v>-41.142516190627461</v>
+        <v>4.4282864564593183E-5</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="12"/>
-        <v>41.142516190627461</v>
+        <v>7999.9999557171359</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" si="13"/>
-        <v>-3.4285430158856219E-2</v>
+        <v>3.6902387137160988E-8</v>
       </c>
       <c r="L114" s="1">
         <f t="shared" si="15"/>
-        <v>1.3246269015960623</v>
+        <v>70.100948116618369</v>
       </c>
       <c r="M114">
         <f t="shared" si="14"/>
-        <v>4.7686568457458245</v>
+        <v>252.36341321982613</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -10323,35 +10324,35 @@
       </c>
       <c r="F115" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G115" s="1">
         <f t="shared" si="9"/>
-        <v>1.3319848903285874</v>
+        <v>5896.9715184271272</v>
       </c>
       <c r="H115" s="1">
         <f t="shared" si="10"/>
-        <v>38.710244143116185</v>
+        <v>2103.028444605623</v>
       </c>
       <c r="I115" s="1">
         <f t="shared" si="11"/>
-        <v>-40.042229033444769</v>
+        <v>3.6967249798181001E-5</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="12"/>
-        <v>40.042229033444769</v>
+        <v>7999.9999630327502</v>
       </c>
       <c r="K115" s="1">
         <f t="shared" si="13"/>
-        <v>-3.3368524194537307E-2</v>
+        <v>3.0806041498484165E-8</v>
       </c>
       <c r="L115" s="1">
         <f t="shared" si="15"/>
-        <v>1.2903414714372061</v>
+        <v>70.100948153520761</v>
       </c>
       <c r="M115">
         <f t="shared" si="14"/>
-        <v>4.645229297173942</v>
+        <v>252.36341335267474</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -10360,35 +10361,35 @@
       </c>
       <c r="F116" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G116" s="1">
         <f t="shared" si="9"/>
-        <v>1.2639847920799367</v>
+        <v>5896.9715236100037</v>
       </c>
       <c r="H116" s="1">
         <f t="shared" si="10"/>
-        <v>37.70918841728006</v>
+        <v>2103.0284455298038</v>
       </c>
       <c r="I116" s="1">
         <f t="shared" si="11"/>
-        <v>-38.973173209359999</v>
+        <v>3.0860192509862827E-5</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" si="12"/>
-        <v>38.973173209359999</v>
+        <v>7999.9999691398079</v>
       </c>
       <c r="K116" s="1">
         <f t="shared" si="13"/>
-        <v>-3.247764434113333E-2</v>
+        <v>2.5716827091552356E-8</v>
       </c>
       <c r="L116" s="1">
         <f t="shared" si="15"/>
-        <v>1.2569729472426687</v>
+        <v>70.100948184326796</v>
       </c>
       <c r="M116">
         <f t="shared" si="14"/>
-        <v>4.5251026100736071</v>
+        <v>252.36341346357648</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -10397,35 +10398,35 @@
       </c>
       <c r="F117" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G117" s="1">
         <f t="shared" si="9"/>
-        <v>1.1995109974623384</v>
+        <v>5896.9715279366619</v>
       </c>
       <c r="H117" s="1">
         <f t="shared" si="10"/>
-        <v>36.734859087046061</v>
+        <v>2103.0284463013086</v>
       </c>
       <c r="I117" s="1">
         <f t="shared" si="11"/>
-        <v>-37.934370084508402</v>
+        <v>2.5762029508769047E-5</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="12"/>
-        <v>37.934370084508402</v>
+        <v>7999.9999742379705</v>
       </c>
       <c r="K117" s="1">
         <f t="shared" si="13"/>
-        <v>-3.1611975070423667E-2</v>
+        <v>2.1468357923974206E-8</v>
       </c>
       <c r="L117" s="1">
         <f t="shared" si="15"/>
-        <v>1.2244953029015353</v>
+        <v>70.100948210043626</v>
       </c>
       <c r="M117">
         <f t="shared" si="14"/>
-        <v>4.4081830904455268</v>
+        <v>252.36341355615707</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -10434,35 +10435,35 @@
       </c>
       <c r="F118" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G118" s="1">
         <f t="shared" si="9"/>
-        <v>1.1383765070539422</v>
+        <v>5896.9715315485473</v>
       </c>
       <c r="H118" s="1">
         <f t="shared" si="10"/>
-        <v>35.786499834933352</v>
+        <v>2103.0284469453595</v>
       </c>
       <c r="I118" s="1">
         <f t="shared" si="11"/>
-        <v>-36.924876341987293</v>
+        <v>2.1506093162315665E-5</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="12"/>
-        <v>36.924876341987293</v>
+        <v>7999.9999784939064</v>
       </c>
       <c r="K118" s="1">
         <f t="shared" si="13"/>
-        <v>-3.077073028498941E-2</v>
+        <v>1.7921744301929719E-8</v>
       </c>
       <c r="L118" s="1">
         <f t="shared" si="15"/>
-        <v>1.1928833278311117</v>
+        <v>70.100948231511978</v>
       </c>
       <c r="M118">
         <f t="shared" si="14"/>
-        <v>4.2943799801920024</v>
+        <v>252.36341363344312</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -10471,35 +10472,35 @@
       </c>
       <c r="F119" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G119" s="1">
         <f t="shared" si="9"/>
-        <v>1.0804045515003167</v>
+        <v>5896.9715345637424</v>
       </c>
       <c r="H119" s="1">
         <f t="shared" si="10"/>
-        <v>34.86337792638367</v>
+        <v>2103.0284474830119</v>
       </c>
       <c r="I119" s="1">
         <f t="shared" si="11"/>
-        <v>-35.943782477883985</v>
+        <v>1.7953245787794003E-5</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="12"/>
-        <v>35.943782477883985</v>
+        <v>7999.9999820467547</v>
       </c>
       <c r="K119" s="1">
         <f t="shared" si="13"/>
-        <v>-2.9953152064903323E-2</v>
+        <v>1.4961038156495001E-8</v>
       </c>
       <c r="L119" s="1">
         <f t="shared" si="15"/>
-        <v>1.1621125975461224</v>
+        <v>70.100948249433728</v>
       </c>
       <c r="M119">
         <f t="shared" si="14"/>
-        <v>4.1836053511660412</v>
+        <v>252.36341369796142</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -10508,35 +10509,35 @@
       </c>
       <c r="F120" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G120" s="1">
         <f t="shared" si="9"/>
-        <v>1.0254280079938733</v>
+        <v>5896.9715370808208</v>
       </c>
       <c r="H120" s="1">
         <f t="shared" si="10"/>
-        <v>33.964783364436578</v>
+        <v>2103.0284479318429</v>
       </c>
       <c r="I120" s="1">
         <f t="shared" si="11"/>
-        <v>-34.990211372430451</v>
+        <v>1.4987336271587992E-5</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="12"/>
-        <v>34.990211372430451</v>
+        <v>7999.9999850126642</v>
       </c>
       <c r="K120" s="1">
         <f t="shared" si="13"/>
-        <v>-2.9158509477025377E-2</v>
+        <v>1.2489446892989994E-8</v>
       </c>
       <c r="L120" s="1">
         <f t="shared" si="15"/>
-        <v>1.1321594454812192</v>
+        <v>70.100948264394759</v>
       </c>
       <c r="M120">
         <f t="shared" si="14"/>
-        <v>4.0757740037323895</v>
+        <v>252.36341375182113</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -10545,35 +10546,35 @@
       </c>
       <c r="F121" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G121" s="1">
         <f t="shared" si="9"/>
-        <v>0.97328885186090186</v>
+        <v>5896.9715391820746</v>
       </c>
       <c r="H121" s="1">
         <f t="shared" si="10"/>
-        <v>33.090028080125812</v>
+        <v>2103.0284483065261</v>
       </c>
       <c r="I121" s="1">
         <f t="shared" si="11"/>
-        <v>-34.063316931986712</v>
+        <v>1.2511399290815461E-5</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="12"/>
-        <v>34.063316931986712</v>
+        <v>7999.9999874886007</v>
       </c>
       <c r="K121" s="1">
         <f t="shared" si="13"/>
-        <v>-2.838609744332226E-2</v>
+        <v>1.0426166075679552E-8</v>
       </c>
       <c r="L121" s="1">
         <f t="shared" si="15"/>
-        <v>1.1030009360041937</v>
+        <v>70.10094827688421</v>
       </c>
       <c r="M121">
         <f t="shared" si="14"/>
-        <v>3.9708033696150973</v>
+        <v>252.36341379678316</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -10582,35 +10583,35 @@
       </c>
       <c r="F122" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G122" s="1">
         <f t="shared" si="9"/>
-        <v>0.9238376410041661</v>
+        <v>5896.9715409361952</v>
       </c>
       <c r="H122" s="1">
         <f t="shared" si="10"/>
-        <v>32.238445156826138</v>
+        <v>2103.0284486193113</v>
       </c>
       <c r="I122" s="1">
         <f t="shared" si="11"/>
-        <v>-33.162282797830308</v>
+        <v>1.0444493454997428E-5</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="12"/>
-        <v>33.162282797830308</v>
+        <v>7999.9999895555065</v>
       </c>
       <c r="K122" s="1">
         <f t="shared" si="13"/>
-        <v>-2.7635235664858589E-2</v>
+        <v>8.7037445458311902E-9</v>
       </c>
       <c r="L122" s="1">
         <f t="shared" si="15"/>
-        <v>1.0746148385608714</v>
+        <v>70.100948287310374</v>
       </c>
       <c r="M122">
         <f t="shared" si="14"/>
-        <v>3.868613418819137</v>
+        <v>252.36341383431736</v>
       </c>
     </row>
   </sheetData>
